--- a/informeMensualAgosto2022.xlsx
+++ b/informeMensualAgosto2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\AHK COORD INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE334D9B-4F2C-4F58-90BE-981A6E79DC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365AF62A-C0E7-4BFD-A717-AFBFFEC57663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROSMAIRA CLASSES" sheetId="4" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="101">
   <si>
     <t>FACULTAD</t>
   </si>
@@ -436,11 +436,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -696,10 +703,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -707,19 +714,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -728,101 +735,107 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="45"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -831,53 +844,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,31 +862,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1278,9 +1291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC52136-72AA-4346-91F4-7CF5ABA02F60}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1302,11 +1315,11 @@
       <c r="I3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="55">
         <f ca="1">NOW()</f>
-        <v>44787.505817361111</v>
-      </c>
-      <c r="K3" s="54"/>
+        <v>44790.473229398151</v>
+      </c>
+      <c r="K3" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -1864,7 +1877,7 @@
       <c r="E24" s="23">
         <v>1</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="54" t="s">
         <v>71</v>
       </c>
       <c r="G24" s="23"/>
@@ -1894,7 +1907,7 @@
       <c r="E25" s="23">
         <v>1</v>
       </c>
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="54" t="s">
         <v>71</v>
       </c>
       <c r="G25" s="23"/>
@@ -1924,7 +1937,7 @@
       <c r="E26" s="23">
         <v>1</v>
       </c>
-      <c r="F26" s="82" t="s">
+      <c r="F26" s="54" t="s">
         <v>71</v>
       </c>
       <c r="G26" s="23"/>
@@ -1948,15 +1961,15 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="81"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
@@ -1976,7 +1989,7 @@
       <c r="E28" s="23">
         <v>1</v>
       </c>
-      <c r="F28" s="82" t="s">
+      <c r="F28" s="54" t="s">
         <v>71</v>
       </c>
       <c r="G28" s="23"/>
@@ -2006,7 +2019,7 @@
       <c r="E29" s="23">
         <v>1</v>
       </c>
-      <c r="F29" s="82" t="s">
+      <c r="F29" s="54" t="s">
         <v>71</v>
       </c>
       <c r="G29" s="23"/>
@@ -2030,15 +2043,15 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="81"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -2052,15 +2065,15 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="81"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
@@ -2134,12 +2147,20 @@
         <f>C33+1</f>
         <v>3</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="38"/>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19">
+        <v>8</v>
+      </c>
+      <c r="F34" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="I34" s="19">
+        <v>1</v>
+      </c>
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2168,12 +2189,20 @@
         <f>$C$34</f>
         <v>3</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="38"/>
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19">
+        <v>8</v>
+      </c>
+      <c r="F36" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
+      <c r="I36" s="19">
+        <v>1</v>
+      </c>
       <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,12 +2217,20 @@
         <f>C36</f>
         <v>3</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="38"/>
+      <c r="D37" s="24">
+        <v>1</v>
+      </c>
+      <c r="E37" s="19">
+        <v>8</v>
+      </c>
+      <c r="F37" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="I37" s="19">
+        <v>1</v>
+      </c>
       <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2368,12 +2405,20 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="38"/>
+      <c r="D46" s="24">
+        <v>1</v>
+      </c>
+      <c r="E46" s="19">
+        <v>8</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="19">
+        <v>1</v>
+      </c>
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2388,12 +2433,20 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="38"/>
+      <c r="D47" s="24">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19">
+        <v>8</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="I47" s="19">
+        <v>1</v>
+      </c>
       <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,8 +3016,8 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22:J22"/>
+      <pane ySplit="5" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2986,11 +3039,11 @@
       <c r="I3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="55">
         <f ca="1">NOW()</f>
-        <v>44787.505817361111</v>
-      </c>
-      <c r="K3" s="54"/>
+        <v>44790.473229398151</v>
+      </c>
+      <c r="K3" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -3484,7 +3537,7 @@
       <c r="E21" s="36">
         <v>5</v>
       </c>
-      <c r="F21" s="78" t="s">
+      <c r="F21" s="53" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="36"/>
@@ -3506,15 +3559,15 @@
         <f>$C$20</f>
         <v>2</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="81"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
@@ -3534,7 +3587,7 @@
       <c r="E23" s="36">
         <v>5</v>
       </c>
-      <c r="F23" s="78" t="s">
+      <c r="F23" s="53" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="36"/>
@@ -3556,15 +3609,15 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="81"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
@@ -3612,7 +3665,7 @@
       <c r="E26" s="36">
         <v>5</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="53" t="s">
         <v>71</v>
       </c>
       <c r="G26" s="36"/>
@@ -3696,7 +3749,7 @@
       <c r="E29" s="36">
         <v>5</v>
       </c>
-      <c r="F29" s="78" t="s">
+      <c r="F29" s="53" t="s">
         <v>71</v>
       </c>
       <c r="G29" s="36"/>
@@ -3756,7 +3809,7 @@
       <c r="E31" s="36">
         <v>5</v>
       </c>
-      <c r="F31" s="78" t="s">
+      <c r="F31" s="53" t="s">
         <v>71</v>
       </c>
       <c r="G31" s="36"/>
@@ -3812,7 +3865,7 @@
       <c r="E33" s="36">
         <v>5</v>
       </c>
-      <c r="F33" s="78" t="s">
+      <c r="F33" s="53" t="s">
         <v>71</v>
       </c>
       <c r="G33" s="36"/>
@@ -3834,12 +3887,22 @@
         <f>C33+1</f>
         <v>3</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="38"/>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19">
+        <v>6</v>
+      </c>
+      <c r="F34" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="H34" s="19">
+        <v>1</v>
+      </c>
+      <c r="I34" s="19">
+        <v>1</v>
+      </c>
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3934,12 +3997,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="38"/>
+      <c r="D39" s="24">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19">
+        <v>6</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="H39" s="19">
+        <v>1</v>
+      </c>
+      <c r="I39" s="19">
+        <v>1</v>
+      </c>
       <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3974,12 +4047,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="38"/>
+      <c r="D41" s="24">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19">
+        <v>6</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="H41" s="19">
+        <v>1</v>
+      </c>
+      <c r="I41" s="19">
+        <v>1</v>
+      </c>
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,12 +4077,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="38"/>
+      <c r="D42" s="24">
+        <v>1</v>
+      </c>
+      <c r="E42" s="19">
+        <v>6</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="H42" s="19">
+        <v>1</v>
+      </c>
+      <c r="I42" s="19">
+        <v>1</v>
+      </c>
       <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4034,12 +4127,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="38"/>
+      <c r="D44" s="24">
+        <v>1</v>
+      </c>
+      <c r="E44" s="19">
+        <v>6</v>
+      </c>
+      <c r="F44" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="H44" s="19">
+        <v>1</v>
+      </c>
+      <c r="I44" s="19">
+        <v>1</v>
+      </c>
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4074,12 +4177,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="38"/>
+      <c r="D46" s="24">
+        <v>1</v>
+      </c>
+      <c r="E46" s="19">
+        <v>6</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>71</v>
+      </c>
       <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
+      <c r="H46" s="19">
+        <v>1</v>
+      </c>
+      <c r="I46" s="19">
+        <v>1</v>
+      </c>
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4678,9 +4791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7EB438-42EA-45E9-AF24-BAB45B31C440}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4702,11 +4815,11 @@
       <c r="I3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="55">
         <f ca="1">NOW()</f>
-        <v>44787.505817361111</v>
-      </c>
-      <c r="K3" s="54"/>
+        <v>44790.473229398151</v>
+      </c>
+      <c r="K3" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -5140,15 +5253,15 @@
         <f t="shared" ref="C19:C25" si="3">$C$16</f>
         <v>2</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
@@ -5542,12 +5655,22 @@
         <f>C35+1</f>
         <v>4</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="40"/>
+      <c r="D36" s="41">
+        <v>1</v>
+      </c>
+      <c r="E36" s="40">
+        <v>2</v>
+      </c>
+      <c r="F36" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="40">
+        <v>1</v>
+      </c>
       <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
+      <c r="I36" s="40">
+        <v>1</v>
+      </c>
       <c r="J36" s="40"/>
     </row>
     <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5582,12 +5705,22 @@
         <f>$C$36</f>
         <v>4</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="40"/>
+      <c r="D38" s="41">
+        <v>1</v>
+      </c>
+      <c r="E38" s="40">
+        <v>2</v>
+      </c>
+      <c r="F38" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="40">
+        <v>1</v>
+      </c>
       <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
+      <c r="I38" s="40">
+        <v>1</v>
+      </c>
       <c r="J38" s="40"/>
     </row>
     <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5622,12 +5755,22 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="40"/>
+      <c r="D40" s="41">
+        <v>1</v>
+      </c>
+      <c r="E40" s="40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="40">
+        <v>1</v>
+      </c>
       <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
+      <c r="I40" s="40">
+        <v>1</v>
+      </c>
       <c r="J40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5642,12 +5785,22 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="40"/>
+      <c r="D41" s="41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="40">
+        <v>2</v>
+      </c>
+      <c r="F41" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="40">
+        <v>1</v>
+      </c>
       <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
+      <c r="I41" s="40">
+        <v>1</v>
+      </c>
       <c r="J41" s="40"/>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5682,12 +5835,22 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="40"/>
+      <c r="D43" s="41">
+        <v>1</v>
+      </c>
+      <c r="E43" s="40">
+        <v>2</v>
+      </c>
+      <c r="F43" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="40">
+        <v>1</v>
+      </c>
       <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
+      <c r="I43" s="40">
+        <v>1</v>
+      </c>
       <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5702,12 +5865,22 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="40"/>
+      <c r="D44" s="41">
+        <v>1</v>
+      </c>
+      <c r="E44" s="40">
+        <v>2</v>
+      </c>
+      <c r="F44" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="40">
+        <v>1</v>
+      </c>
       <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
+      <c r="I44" s="40">
+        <v>1</v>
+      </c>
       <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6039,37 +6212,37 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="64">
-        <v>1</v>
-      </c>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="77">
+        <v>1</v>
+      </c>
+      <c r="G9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="66" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="5">
@@ -6090,17 +6263,17 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="56"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="12">
         <v>2</v>
       </c>
@@ -6119,27 +6292,27 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="56"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="12">
         <v>3</v>
       </c>
-      <c r="N11" s="12" t="str">
+      <c r="N11" s="12">
         <f>IF('ROSMAIRA CLASSES'!E34="","",'ROSMAIRA CLASSES'!E34)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="O11" s="4" t="str">
         <f>IF(N11="","",'ROSMAIRA CLASSES'!F34)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -6148,17 +6321,17 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="56"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="12">
         <v>4</v>
       </c>
@@ -6177,17 +6350,17 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="56"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="12">
         <v>5</v>
       </c>
@@ -6206,24 +6379,24 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="69" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="80" t="s">
         <v>45</v>
       </c>
       <c r="M14" s="14">
         <v>1</v>
       </c>
       <c r="N14" s="13"/>
-      <c r="O14" s="71" t="s">
+      <c r="O14" s="60" t="s">
         <v>72</v>
       </c>
       <c r="P14" s="1"/>
@@ -6233,22 +6406,22 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="70"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="81"/>
       <c r="M15" s="13">
         <v>2</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="72"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -6256,22 +6429,22 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="70"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="81"/>
       <c r="M16" s="13">
         <v>3</v>
       </c>
       <c r="N16" s="13"/>
-      <c r="O16" s="72"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -6279,22 +6452,22 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="70"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="81"/>
       <c r="M17" s="13">
         <v>4</v>
       </c>
       <c r="N17" s="13"/>
-      <c r="O17" s="72"/>
+      <c r="O17" s="61"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -6302,22 +6475,22 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="70"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="81"/>
       <c r="M18" s="13">
         <v>5</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="O18" s="73"/>
+      <c r="O18" s="62"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -6325,17 +6498,17 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="55" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="66" t="s">
         <v>29</v>
       </c>
       <c r="M19" s="5">
@@ -6356,17 +6529,17 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="56"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="12">
         <v>2</v>
       </c>
@@ -6385,27 +6558,27 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="56"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="67"/>
       <c r="M21" s="12">
         <v>3</v>
       </c>
-      <c r="N21" s="30" t="str">
+      <c r="N21" s="30">
         <f>IF('ROSMAIRA CLASSES'!E36="","",'ROSMAIRA CLASSES'!E36)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="O21" s="31" t="str">
         <f>IF(N21="","",'ROSMAIRA CLASSES'!F36)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -6414,17 +6587,17 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="56"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="12">
         <v>4</v>
       </c>
@@ -6443,17 +6616,17 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="56"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="67"/>
       <c r="M23" s="12">
         <v>5</v>
       </c>
@@ -6472,17 +6645,17 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="55" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="66" t="s">
         <v>46</v>
       </c>
       <c r="M24" s="5">
@@ -6503,17 +6676,17 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="56"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="12">
         <v>2</v>
       </c>
@@ -6532,27 +6705,27 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="56"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="12">
         <v>3</v>
       </c>
-      <c r="N26" s="30" t="str">
+      <c r="N26" s="30">
         <f>IF('ROSMAIRA CLASSES'!E37="","",'ROSMAIRA CLASSES'!E37)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="O26" s="31" t="str">
         <f>IF(N26="","",'ROSMAIRA CLASSES'!F37)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -6561,17 +6734,17 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="56"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="12">
         <v>4</v>
       </c>
@@ -6590,17 +6763,17 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="56"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="67"/>
       <c r="M28" s="12">
         <v>5</v>
       </c>
@@ -6619,17 +6792,17 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="55" t="s">
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="66" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="5">
@@ -6650,17 +6823,17 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="56"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="67"/>
       <c r="M30" s="12">
         <v>2</v>
       </c>
@@ -6679,17 +6852,17 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="56"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="67"/>
       <c r="M31" s="12">
         <v>3</v>
       </c>
@@ -6708,17 +6881,17 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="56"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="67"/>
       <c r="M32" s="12">
         <v>4</v>
       </c>
@@ -6737,17 +6910,17 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="56"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="67"/>
       <c r="M33" s="12">
         <v>5</v>
       </c>
@@ -6766,17 +6939,17 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="55" t="s">
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="66" t="s">
         <v>28</v>
       </c>
       <c r="M34" s="5">
@@ -6797,17 +6970,17 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="56"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="67"/>
       <c r="M35" s="12">
         <v>2</v>
       </c>
@@ -6826,17 +6999,17 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="56"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="67"/>
       <c r="M36" s="12">
         <v>3</v>
       </c>
@@ -6855,17 +7028,17 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="56"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="67"/>
       <c r="M37" s="12">
         <v>4</v>
       </c>
@@ -6884,17 +7057,17 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="56"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="67"/>
       <c r="M38" s="12">
         <v>5</v>
       </c>
@@ -6913,17 +7086,17 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="55" t="s">
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="66" t="s">
         <v>47</v>
       </c>
       <c r="M39" s="5">
@@ -6944,17 +7117,17 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="56"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="67"/>
       <c r="M40" s="12">
         <v>2</v>
       </c>
@@ -6973,17 +7146,17 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="56"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="67"/>
       <c r="M41" s="12">
         <v>3</v>
       </c>
@@ -7002,17 +7175,17 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="56"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="67"/>
       <c r="M42" s="12">
         <v>4</v>
       </c>
@@ -7031,17 +7204,17 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="56"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="67"/>
       <c r="M43" s="12">
         <v>5</v>
       </c>
@@ -7060,17 +7233,17 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="67" t="s">
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="74" t="s">
         <v>48</v>
       </c>
       <c r="M44" s="5">
@@ -7091,17 +7264,17 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="68"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="75"/>
       <c r="M45" s="12">
         <v>2</v>
       </c>
@@ -7120,17 +7293,17 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="68"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="75"/>
       <c r="M46" s="12">
         <v>3</v>
       </c>
@@ -7149,17 +7322,17 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="68"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="75"/>
       <c r="M47" s="12">
         <v>4</v>
       </c>
@@ -7178,17 +7351,17 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="68"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="75"/>
       <c r="M48" s="12">
         <v>5</v>
       </c>
@@ -7207,17 +7380,17 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="55" t="s">
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="66" t="s">
         <v>25</v>
       </c>
       <c r="M49" s="5">
@@ -7238,17 +7411,17 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="56"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="67"/>
       <c r="M50" s="12">
         <v>2</v>
       </c>
@@ -7267,17 +7440,17 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="56"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="67"/>
       <c r="M51" s="12">
         <v>3</v>
       </c>
@@ -7296,17 +7469,17 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="56"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="67"/>
       <c r="M52" s="12">
         <v>4</v>
       </c>
@@ -7325,17 +7498,17 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="56"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="67"/>
       <c r="M53" s="12">
         <v>5</v>
       </c>
@@ -7354,17 +7527,17 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="55" t="s">
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="66" t="s">
         <v>26</v>
       </c>
       <c r="M54" s="5">
@@ -7385,17 +7558,17 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="56"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="67"/>
       <c r="M55" s="12">
         <v>2</v>
       </c>
@@ -7414,17 +7587,17 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="56"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="67"/>
       <c r="M56" s="12">
         <v>3</v>
       </c>
@@ -7443,17 +7616,17 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="56"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="67"/>
       <c r="M57" s="12">
         <v>4</v>
       </c>
@@ -7472,17 +7645,17 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="56"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="67"/>
       <c r="M58" s="12">
         <v>5</v>
       </c>
@@ -7501,17 +7674,17 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="55" t="s">
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="66" t="s">
         <v>49</v>
       </c>
       <c r="M59" s="5">
@@ -7532,17 +7705,17 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="56"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="67"/>
       <c r="M60" s="12">
         <v>2</v>
       </c>
@@ -7561,17 +7734,17 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="56"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="67"/>
       <c r="M61" s="12">
         <v>3</v>
       </c>
@@ -7590,17 +7763,17 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="56"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="67"/>
       <c r="M62" s="12">
         <v>4</v>
       </c>
@@ -7619,17 +7792,17 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="56"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="67"/>
       <c r="M63" s="12">
         <v>5</v>
       </c>
@@ -7648,17 +7821,17 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="55" t="s">
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="66" t="s">
         <v>50</v>
       </c>
       <c r="M64" s="5">
@@ -7679,17 +7852,17 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="56"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="67"/>
       <c r="M65" s="12">
         <v>2</v>
       </c>
@@ -7708,17 +7881,17 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="56"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="67"/>
       <c r="M66" s="12">
         <v>3</v>
       </c>
@@ -7737,17 +7910,17 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="56"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="67"/>
       <c r="M67" s="12">
         <v>4</v>
       </c>
@@ -7766,17 +7939,17 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="62"/>
-      <c r="L68" s="56"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="67"/>
       <c r="M68" s="12">
         <v>5</v>
       </c>
@@ -7795,17 +7968,17 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="55" t="s">
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="66" t="s">
         <v>23</v>
       </c>
       <c r="M69" s="5">
@@ -7821,17 +7994,17 @@
       </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="56"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="67"/>
       <c r="M70" s="12">
         <v>2</v>
       </c>
@@ -7845,41 +8018,41 @@
       </c>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="56"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="67"/>
       <c r="M71" s="12">
         <v>3</v>
       </c>
-      <c r="N71" s="30" t="str">
+      <c r="N71" s="30">
         <f>IF('ROSMAIRA CLASSES'!E46="","",'ROSMAIRA CLASSES'!E46)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="O71" s="31" t="str">
         <f>IF(N71="","",'ROSMAIRA CLASSES'!F46)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="56"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="67"/>
       <c r="M72" s="12">
         <v>4</v>
       </c>
@@ -7893,17 +8066,17 @@
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="56"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="64"/>
+      <c r="L73" s="67"/>
       <c r="M73" s="12">
         <v>5</v>
       </c>
@@ -7917,17 +8090,17 @@
       </c>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="55" t="s">
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="66" t="s">
         <v>24</v>
       </c>
       <c r="M74" s="5">
@@ -7943,17 +8116,17 @@
       </c>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="59"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="56"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="67"/>
       <c r="M75" s="12">
         <v>2</v>
       </c>
@@ -7967,41 +8140,41 @@
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="56"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="67"/>
       <c r="M76" s="12">
         <v>3</v>
       </c>
-      <c r="N76" s="30" t="str">
+      <c r="N76" s="30">
         <f>IF('ROSMAIRA CLASSES'!E47="","",'ROSMAIRA CLASSES'!E47)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="O76" s="31" t="str">
         <f>IF(N76="","",'ROSMAIRA CLASSES'!F47)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="56"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="64"/>
+      <c r="L77" s="67"/>
       <c r="M77" s="12">
         <v>4</v>
       </c>
@@ -8015,17 +8188,17 @@
       </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="56"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="67"/>
       <c r="M78" s="12">
         <v>5</v>
       </c>
@@ -8039,38 +8212,38 @@
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="74" t="s">
+      <c r="B79" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="61" t="s">
+      <c r="D79" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="61" t="str">
+      <c r="E79" s="63" t="str">
         <f>E9</f>
         <v>AGOSTO</v>
       </c>
-      <c r="F79" s="64">
-        <v>1</v>
-      </c>
-      <c r="G79" s="61" t="s">
+      <c r="F79" s="77">
+        <v>1</v>
+      </c>
+      <c r="G79" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="61" t="s">
+      <c r="H79" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="61" t="s">
+      <c r="I79" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="J79" s="61" t="s">
+      <c r="J79" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="K79" s="61" t="s">
+      <c r="K79" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="L79" s="55" t="s">
+      <c r="L79" s="66" t="s">
         <v>55</v>
       </c>
       <c r="M79" s="5">
@@ -8086,17 +8259,17 @@
       </c>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B80" s="75"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="62"/>
-      <c r="L80" s="56"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="64"/>
+      <c r="L80" s="67"/>
       <c r="M80" s="12">
         <v>2</v>
       </c>
@@ -8110,41 +8283,41 @@
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="75"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="62"/>
-      <c r="K81" s="62"/>
-      <c r="L81" s="56"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="67"/>
       <c r="M81" s="12">
         <v>3</v>
       </c>
-      <c r="N81" s="30" t="str">
+      <c r="N81" s="30">
         <f>IF('JIMMY CLASSES'!E34="","",'JIMMY CLASSES'!E34)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="O81" s="31" t="str">
         <f>IF(N81="","",'JIMMY CLASSES'!F34)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="75"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="56"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="67"/>
       <c r="M82" s="12">
         <v>4</v>
       </c>
@@ -8158,17 +8331,17 @@
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="75"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="56"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
+      <c r="L83" s="67"/>
       <c r="M83" s="12">
         <v>5</v>
       </c>
@@ -8182,17 +8355,17 @@
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="75"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="55" t="s">
+      <c r="B84" s="69"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="66" t="s">
         <v>18</v>
       </c>
       <c r="M84" s="5">
@@ -8208,17 +8381,17 @@
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="75"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="56"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="67"/>
       <c r="M85" s="12">
         <v>2</v>
       </c>
@@ -8232,17 +8405,17 @@
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="75"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="56"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="67"/>
       <c r="M86" s="12">
         <v>3</v>
       </c>
@@ -8256,17 +8429,17 @@
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="75"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="56"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
+      <c r="L87" s="67"/>
       <c r="M87" s="12">
         <v>4</v>
       </c>
@@ -8280,17 +8453,17 @@
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="75"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="62"/>
-      <c r="K88" s="62"/>
-      <c r="L88" s="56"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="64"/>
+      <c r="L88" s="67"/>
       <c r="M88" s="12">
         <v>5</v>
       </c>
@@ -8304,17 +8477,17 @@
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="75"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="62"/>
-      <c r="H89" s="62"/>
-      <c r="I89" s="62"/>
-      <c r="J89" s="62"/>
-      <c r="K89" s="62"/>
-      <c r="L89" s="55" t="s">
+      <c r="B89" s="69"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="64"/>
+      <c r="K89" s="64"/>
+      <c r="L89" s="66" t="s">
         <v>19</v>
       </c>
       <c r="M89" s="5">
@@ -8330,17 +8503,17 @@
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="75"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="62"/>
-      <c r="J90" s="62"/>
-      <c r="K90" s="62"/>
-      <c r="L90" s="56"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="64"/>
+      <c r="K90" s="64"/>
+      <c r="L90" s="67"/>
       <c r="M90" s="12">
         <v>2</v>
       </c>
@@ -8354,17 +8527,17 @@
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="75"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="62"/>
-      <c r="H91" s="62"/>
-      <c r="I91" s="62"/>
-      <c r="J91" s="62"/>
-      <c r="K91" s="62"/>
-      <c r="L91" s="56"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="67"/>
       <c r="M91" s="12">
         <v>3</v>
       </c>
@@ -8378,17 +8551,17 @@
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="75"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="62"/>
-      <c r="L92" s="56"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="64"/>
+      <c r="L92" s="67"/>
       <c r="M92" s="12">
         <v>4</v>
       </c>
@@ -8402,17 +8575,17 @@
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="75"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="62"/>
-      <c r="H93" s="62"/>
-      <c r="I93" s="62"/>
-      <c r="J93" s="62"/>
-      <c r="K93" s="62"/>
-      <c r="L93" s="56"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="64"/>
+      <c r="J93" s="64"/>
+      <c r="K93" s="64"/>
+      <c r="L93" s="67"/>
       <c r="M93" s="12">
         <v>5</v>
       </c>
@@ -8426,17 +8599,17 @@
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="75"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="62"/>
-      <c r="H94" s="62"/>
-      <c r="I94" s="62"/>
-      <c r="J94" s="62"/>
-      <c r="K94" s="62"/>
-      <c r="L94" s="55" t="s">
+      <c r="B94" s="69"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="64"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="64"/>
+      <c r="L94" s="66" t="s">
         <v>17</v>
       </c>
       <c r="M94" s="5">
@@ -8452,17 +8625,17 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="75"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="62"/>
-      <c r="I95" s="62"/>
-      <c r="J95" s="62"/>
-      <c r="K95" s="62"/>
-      <c r="L95" s="56"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="64"/>
+      <c r="L95" s="67"/>
       <c r="M95" s="12">
         <v>2</v>
       </c>
@@ -8476,17 +8649,17 @@
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="75"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="62"/>
-      <c r="K96" s="62"/>
-      <c r="L96" s="56"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
+      <c r="L96" s="67"/>
       <c r="M96" s="12">
         <v>3</v>
       </c>
@@ -8500,17 +8673,17 @@
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="75"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="62"/>
-      <c r="L97" s="56"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="64"/>
+      <c r="L97" s="67"/>
       <c r="M97" s="12">
         <v>4</v>
       </c>
@@ -8524,17 +8697,17 @@
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="75"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="62"/>
-      <c r="H98" s="62"/>
-      <c r="I98" s="62"/>
-      <c r="J98" s="62"/>
-      <c r="K98" s="62"/>
-      <c r="L98" s="56"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="64"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="67"/>
       <c r="M98" s="12">
         <v>5</v>
       </c>
@@ -8548,17 +8721,17 @@
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="75"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="62"/>
-      <c r="I99" s="62"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="62"/>
-      <c r="L99" s="55" t="s">
+      <c r="B99" s="69"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="64"/>
+      <c r="J99" s="64"/>
+      <c r="K99" s="64"/>
+      <c r="L99" s="66" t="s">
         <v>34</v>
       </c>
       <c r="M99" s="5">
@@ -8574,17 +8747,17 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="75"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="62"/>
-      <c r="H100" s="62"/>
-      <c r="I100" s="62"/>
-      <c r="J100" s="62"/>
-      <c r="K100" s="62"/>
-      <c r="L100" s="56"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
+      <c r="J100" s="64"/>
+      <c r="K100" s="64"/>
+      <c r="L100" s="67"/>
       <c r="M100" s="12">
         <v>2</v>
       </c>
@@ -8598,17 +8771,17 @@
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="75"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="62"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62"/>
-      <c r="K101" s="62"/>
-      <c r="L101" s="56"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="64"/>
+      <c r="J101" s="64"/>
+      <c r="K101" s="64"/>
+      <c r="L101" s="67"/>
       <c r="M101" s="12">
         <v>3</v>
       </c>
@@ -8622,17 +8795,17 @@
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="75"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="L102" s="56"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="64"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="64"/>
+      <c r="L102" s="67"/>
       <c r="M102" s="12">
         <v>4</v>
       </c>
@@ -8646,17 +8819,17 @@
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="75"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="62"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="62"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="62"/>
-      <c r="L103" s="56"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="64"/>
+      <c r="J103" s="64"/>
+      <c r="K103" s="64"/>
+      <c r="L103" s="67"/>
       <c r="M103" s="12">
         <v>5</v>
       </c>
@@ -8670,17 +8843,17 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="75"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="62"/>
-      <c r="H104" s="62"/>
-      <c r="I104" s="62"/>
-      <c r="J104" s="62"/>
-      <c r="K104" s="62"/>
-      <c r="L104" s="55" t="s">
+      <c r="B104" s="69"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="64"/>
+      <c r="J104" s="64"/>
+      <c r="K104" s="64"/>
+      <c r="L104" s="66" t="s">
         <v>56</v>
       </c>
       <c r="M104" s="5">
@@ -8696,17 +8869,17 @@
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="75"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
-      <c r="K105" s="62"/>
-      <c r="L105" s="56"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="64"/>
+      <c r="L105" s="67"/>
       <c r="M105" s="12">
         <v>2</v>
       </c>
@@ -8720,41 +8893,41 @@
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="75"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="62"/>
-      <c r="H106" s="62"/>
-      <c r="I106" s="62"/>
-      <c r="J106" s="62"/>
-      <c r="K106" s="62"/>
-      <c r="L106" s="56"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="64"/>
+      <c r="L106" s="67"/>
       <c r="M106" s="12">
         <v>3</v>
       </c>
-      <c r="N106" s="30" t="str">
+      <c r="N106" s="30">
         <f>IF('JIMMY CLASSES'!E39="","",'JIMMY CLASSES'!E39)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="O106" s="31" t="str">
         <f>IF(N106="","",'JIMMY CLASSES'!F39)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="75"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="62"/>
-      <c r="H107" s="62"/>
-      <c r="I107" s="62"/>
-      <c r="J107" s="62"/>
-      <c r="K107" s="62"/>
-      <c r="L107" s="56"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="64"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="64"/>
+      <c r="L107" s="67"/>
       <c r="M107" s="12">
         <v>4</v>
       </c>
@@ -8768,17 +8941,17 @@
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="75"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="62"/>
-      <c r="H108" s="62"/>
-      <c r="I108" s="62"/>
-      <c r="J108" s="62"/>
-      <c r="K108" s="62"/>
-      <c r="L108" s="56"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="72"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="64"/>
+      <c r="L108" s="67"/>
       <c r="M108" s="12">
         <v>5</v>
       </c>
@@ -8792,17 +8965,17 @@
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="75"/>
-      <c r="C109" s="59"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="62"/>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="62"/>
-      <c r="K109" s="62"/>
-      <c r="L109" s="55" t="s">
+      <c r="B109" s="69"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="64"/>
+      <c r="J109" s="64"/>
+      <c r="K109" s="64"/>
+      <c r="L109" s="66" t="s">
         <v>57</v>
       </c>
       <c r="M109" s="5">
@@ -8818,17 +8991,17 @@
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="75"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="65"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="62"/>
-      <c r="K110" s="62"/>
-      <c r="L110" s="56"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="64"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="64"/>
+      <c r="L110" s="67"/>
       <c r="M110" s="12">
         <v>2</v>
       </c>
@@ -8842,17 +9015,17 @@
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="75"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="62"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="62"/>
-      <c r="K111" s="62"/>
-      <c r="L111" s="56"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
+      <c r="J111" s="64"/>
+      <c r="K111" s="64"/>
+      <c r="L111" s="67"/>
       <c r="M111" s="12">
         <v>3</v>
       </c>
@@ -8866,17 +9039,17 @@
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="75"/>
-      <c r="C112" s="59"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="65"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="62"/>
-      <c r="I112" s="62"/>
-      <c r="J112" s="62"/>
-      <c r="K112" s="62"/>
-      <c r="L112" s="56"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="64"/>
+      <c r="J112" s="64"/>
+      <c r="K112" s="64"/>
+      <c r="L112" s="67"/>
       <c r="M112" s="12">
         <v>4</v>
       </c>
@@ -8890,17 +9063,17 @@
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="75"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="62"/>
-      <c r="J113" s="62"/>
-      <c r="K113" s="62"/>
-      <c r="L113" s="56"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="64"/>
+      <c r="J113" s="64"/>
+      <c r="K113" s="64"/>
+      <c r="L113" s="67"/>
       <c r="M113" s="12">
         <v>5</v>
       </c>
@@ -8914,17 +9087,17 @@
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B114" s="75"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="62"/>
-      <c r="E114" s="62"/>
-      <c r="F114" s="65"/>
-      <c r="G114" s="62"/>
-      <c r="H114" s="62"/>
-      <c r="I114" s="62"/>
-      <c r="J114" s="62"/>
-      <c r="K114" s="62"/>
-      <c r="L114" s="67" t="s">
+      <c r="B114" s="69"/>
+      <c r="C114" s="72"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="64"/>
+      <c r="J114" s="64"/>
+      <c r="K114" s="64"/>
+      <c r="L114" s="74" t="s">
         <v>58</v>
       </c>
       <c r="M114" s="5">
@@ -8940,17 +9113,17 @@
       </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B115" s="75"/>
-      <c r="C115" s="59"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="62"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="62"/>
-      <c r="I115" s="62"/>
-      <c r="J115" s="62"/>
-      <c r="K115" s="62"/>
-      <c r="L115" s="68"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="64"/>
+      <c r="J115" s="64"/>
+      <c r="K115" s="64"/>
+      <c r="L115" s="75"/>
       <c r="M115" s="12">
         <v>2</v>
       </c>
@@ -8964,41 +9137,41 @@
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B116" s="75"/>
-      <c r="C116" s="59"/>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="62"/>
-      <c r="H116" s="62"/>
-      <c r="I116" s="62"/>
-      <c r="J116" s="62"/>
-      <c r="K116" s="62"/>
-      <c r="L116" s="68"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="78"/>
+      <c r="G116" s="64"/>
+      <c r="H116" s="64"/>
+      <c r="I116" s="64"/>
+      <c r="J116" s="64"/>
+      <c r="K116" s="64"/>
+      <c r="L116" s="75"/>
       <c r="M116" s="12">
         <v>3</v>
       </c>
-      <c r="N116" s="30" t="str">
+      <c r="N116" s="30">
         <f>IF('JIMMY CLASSES'!E41="","",'JIMMY CLASSES'!E41)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="O116" s="31" t="str">
         <f>IF(N116="","",'JIMMY CLASSES'!F41)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B117" s="75"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="62"/>
-      <c r="I117" s="62"/>
-      <c r="J117" s="62"/>
-      <c r="K117" s="62"/>
-      <c r="L117" s="68"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="64"/>
+      <c r="J117" s="64"/>
+      <c r="K117" s="64"/>
+      <c r="L117" s="75"/>
       <c r="M117" s="12">
         <v>4</v>
       </c>
@@ -9012,17 +9185,17 @@
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B118" s="75"/>
-      <c r="C118" s="59"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="62"/>
-      <c r="I118" s="62"/>
-      <c r="J118" s="62"/>
-      <c r="K118" s="62"/>
-      <c r="L118" s="68"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="72"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="78"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+      <c r="J118" s="64"/>
+      <c r="K118" s="64"/>
+      <c r="L118" s="75"/>
       <c r="M118" s="12">
         <v>5</v>
       </c>
@@ -9036,17 +9209,17 @@
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B119" s="75"/>
-      <c r="C119" s="59"/>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="65"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="62"/>
-      <c r="I119" s="62"/>
-      <c r="J119" s="62"/>
-      <c r="K119" s="62"/>
-      <c r="L119" s="67" t="s">
+      <c r="B119" s="69"/>
+      <c r="C119" s="72"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="78"/>
+      <c r="G119" s="64"/>
+      <c r="H119" s="64"/>
+      <c r="I119" s="64"/>
+      <c r="J119" s="64"/>
+      <c r="K119" s="64"/>
+      <c r="L119" s="74" t="s">
         <v>59</v>
       </c>
       <c r="M119" s="5">
@@ -9062,17 +9235,17 @@
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B120" s="75"/>
-      <c r="C120" s="59"/>
-      <c r="D120" s="62"/>
-      <c r="E120" s="62"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="62"/>
-      <c r="H120" s="62"/>
-      <c r="I120" s="62"/>
-      <c r="J120" s="62"/>
-      <c r="K120" s="62"/>
-      <c r="L120" s="68"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="78"/>
+      <c r="G120" s="64"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="64"/>
+      <c r="J120" s="64"/>
+      <c r="K120" s="64"/>
+      <c r="L120" s="75"/>
       <c r="M120" s="12">
         <v>2</v>
       </c>
@@ -9086,41 +9259,41 @@
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B121" s="75"/>
-      <c r="C121" s="59"/>
-      <c r="D121" s="62"/>
-      <c r="E121" s="62"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="62"/>
-      <c r="I121" s="62"/>
-      <c r="J121" s="62"/>
-      <c r="K121" s="62"/>
-      <c r="L121" s="68"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="72"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="78"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="64"/>
+      <c r="J121" s="64"/>
+      <c r="K121" s="64"/>
+      <c r="L121" s="75"/>
       <c r="M121" s="12">
         <v>3</v>
       </c>
-      <c r="N121" s="30" t="str">
+      <c r="N121" s="30">
         <f>IF('JIMMY CLASSES'!E42="","",'JIMMY CLASSES'!E42)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="O121" s="31" t="str">
         <f>IF(N121="","",'JIMMY CLASSES'!F42)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B122" s="75"/>
-      <c r="C122" s="59"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="62"/>
-      <c r="I122" s="62"/>
-      <c r="J122" s="62"/>
-      <c r="K122" s="62"/>
-      <c r="L122" s="68"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
+      <c r="K122" s="64"/>
+      <c r="L122" s="75"/>
       <c r="M122" s="12">
         <v>4</v>
       </c>
@@ -9134,17 +9307,17 @@
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B123" s="75"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="62"/>
-      <c r="I123" s="62"/>
-      <c r="J123" s="62"/>
-      <c r="K123" s="62"/>
-      <c r="L123" s="68"/>
+      <c r="B123" s="69"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="64"/>
+      <c r="J123" s="64"/>
+      <c r="K123" s="64"/>
+      <c r="L123" s="75"/>
       <c r="M123" s="12">
         <v>5</v>
       </c>
@@ -9158,17 +9331,17 @@
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B124" s="75"/>
-      <c r="C124" s="59"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="62"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="62"/>
-      <c r="H124" s="62"/>
-      <c r="I124" s="62"/>
-      <c r="J124" s="62"/>
-      <c r="K124" s="62"/>
-      <c r="L124" s="55" t="s">
+      <c r="B124" s="69"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="64"/>
+      <c r="L124" s="66" t="s">
         <v>35</v>
       </c>
       <c r="M124" s="5">
@@ -9184,17 +9357,17 @@
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B125" s="75"/>
-      <c r="C125" s="59"/>
-      <c r="D125" s="62"/>
-      <c r="E125" s="62"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="62"/>
-      <c r="I125" s="62"/>
-      <c r="J125" s="62"/>
-      <c r="K125" s="62"/>
-      <c r="L125" s="56"/>
+      <c r="B125" s="69"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="64"/>
+      <c r="H125" s="64"/>
+      <c r="I125" s="64"/>
+      <c r="J125" s="64"/>
+      <c r="K125" s="64"/>
+      <c r="L125" s="67"/>
       <c r="M125" s="12">
         <v>2</v>
       </c>
@@ -9208,17 +9381,17 @@
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B126" s="75"/>
-      <c r="C126" s="59"/>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="62"/>
-      <c r="K126" s="62"/>
-      <c r="L126" s="56"/>
+      <c r="B126" s="69"/>
+      <c r="C126" s="72"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="78"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="64"/>
+      <c r="L126" s="67"/>
       <c r="M126" s="12">
         <v>3</v>
       </c>
@@ -9232,17 +9405,17 @@
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B127" s="75"/>
-      <c r="C127" s="59"/>
-      <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="62"/>
-      <c r="H127" s="62"/>
-      <c r="I127" s="62"/>
-      <c r="J127" s="62"/>
-      <c r="K127" s="62"/>
-      <c r="L127" s="56"/>
+      <c r="B127" s="69"/>
+      <c r="C127" s="72"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="78"/>
+      <c r="G127" s="64"/>
+      <c r="H127" s="64"/>
+      <c r="I127" s="64"/>
+      <c r="J127" s="64"/>
+      <c r="K127" s="64"/>
+      <c r="L127" s="67"/>
       <c r="M127" s="12">
         <v>4</v>
       </c>
@@ -9256,17 +9429,17 @@
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B128" s="75"/>
-      <c r="C128" s="59"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="65"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="62"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="62"/>
-      <c r="L128" s="56"/>
+      <c r="B128" s="69"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="78"/>
+      <c r="G128" s="64"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="64"/>
+      <c r="J128" s="64"/>
+      <c r="K128" s="64"/>
+      <c r="L128" s="67"/>
       <c r="M128" s="12">
         <v>5</v>
       </c>
@@ -9280,17 +9453,17 @@
       </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B129" s="75"/>
-      <c r="C129" s="59"/>
-      <c r="D129" s="62"/>
-      <c r="E129" s="62"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="62"/>
-      <c r="H129" s="62"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="62"/>
-      <c r="K129" s="62"/>
-      <c r="L129" s="55" t="s">
+      <c r="B129" s="69"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="78"/>
+      <c r="G129" s="64"/>
+      <c r="H129" s="64"/>
+      <c r="I129" s="64"/>
+      <c r="J129" s="64"/>
+      <c r="K129" s="64"/>
+      <c r="L129" s="66" t="s">
         <v>60</v>
       </c>
       <c r="M129" s="5">
@@ -9306,17 +9479,17 @@
       </c>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B130" s="75"/>
-      <c r="C130" s="59"/>
-      <c r="D130" s="62"/>
-      <c r="E130" s="62"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="62"/>
-      <c r="H130" s="62"/>
-      <c r="I130" s="62"/>
-      <c r="J130" s="62"/>
-      <c r="K130" s="62"/>
-      <c r="L130" s="56"/>
+      <c r="B130" s="69"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="78"/>
+      <c r="G130" s="64"/>
+      <c r="H130" s="64"/>
+      <c r="I130" s="64"/>
+      <c r="J130" s="64"/>
+      <c r="K130" s="64"/>
+      <c r="L130" s="67"/>
       <c r="M130" s="12">
         <v>2</v>
       </c>
@@ -9330,41 +9503,41 @@
       </c>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B131" s="75"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="62"/>
-      <c r="H131" s="62"/>
-      <c r="I131" s="62"/>
-      <c r="J131" s="62"/>
-      <c r="K131" s="62"/>
-      <c r="L131" s="56"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="72"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="64"/>
+      <c r="F131" s="78"/>
+      <c r="G131" s="64"/>
+      <c r="H131" s="64"/>
+      <c r="I131" s="64"/>
+      <c r="J131" s="64"/>
+      <c r="K131" s="64"/>
+      <c r="L131" s="67"/>
       <c r="M131" s="12">
         <v>3</v>
       </c>
-      <c r="N131" s="30" t="str">
+      <c r="N131" s="30">
         <f>IF('JIMMY CLASSES'!E44="","",'JIMMY CLASSES'!E44)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="O131" s="31" t="str">
         <f>IF(N131="","",'JIMMY CLASSES'!F44)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B132" s="75"/>
-      <c r="C132" s="59"/>
-      <c r="D132" s="62"/>
-      <c r="E132" s="62"/>
-      <c r="F132" s="65"/>
-      <c r="G132" s="62"/>
-      <c r="H132" s="62"/>
-      <c r="I132" s="62"/>
-      <c r="J132" s="62"/>
-      <c r="K132" s="62"/>
-      <c r="L132" s="56"/>
+      <c r="B132" s="69"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="64"/>
+      <c r="F132" s="78"/>
+      <c r="G132" s="64"/>
+      <c r="H132" s="64"/>
+      <c r="I132" s="64"/>
+      <c r="J132" s="64"/>
+      <c r="K132" s="64"/>
+      <c r="L132" s="67"/>
       <c r="M132" s="12">
         <v>4</v>
       </c>
@@ -9378,17 +9551,17 @@
       </c>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B133" s="75"/>
-      <c r="C133" s="59"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="62"/>
-      <c r="F133" s="65"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="62"/>
-      <c r="I133" s="62"/>
-      <c r="J133" s="62"/>
-      <c r="K133" s="62"/>
-      <c r="L133" s="56"/>
+      <c r="B133" s="69"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="64"/>
+      <c r="F133" s="78"/>
+      <c r="G133" s="64"/>
+      <c r="H133" s="64"/>
+      <c r="I133" s="64"/>
+      <c r="J133" s="64"/>
+      <c r="K133" s="64"/>
+      <c r="L133" s="67"/>
       <c r="M133" s="12">
         <v>5</v>
       </c>
@@ -9402,17 +9575,17 @@
       </c>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B134" s="75"/>
-      <c r="C134" s="59"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="65"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="62"/>
-      <c r="I134" s="62"/>
-      <c r="J134" s="62"/>
-      <c r="K134" s="62"/>
-      <c r="L134" s="55" t="s">
+      <c r="B134" s="69"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="64"/>
+      <c r="H134" s="64"/>
+      <c r="I134" s="64"/>
+      <c r="J134" s="64"/>
+      <c r="K134" s="64"/>
+      <c r="L134" s="66" t="s">
         <v>36</v>
       </c>
       <c r="M134" s="5">
@@ -9428,17 +9601,17 @@
       </c>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B135" s="75"/>
-      <c r="C135" s="59"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="62"/>
-      <c r="F135" s="65"/>
-      <c r="G135" s="62"/>
-      <c r="H135" s="62"/>
-      <c r="I135" s="62"/>
-      <c r="J135" s="62"/>
-      <c r="K135" s="62"/>
-      <c r="L135" s="56"/>
+      <c r="B135" s="69"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="64"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="64"/>
+      <c r="H135" s="64"/>
+      <c r="I135" s="64"/>
+      <c r="J135" s="64"/>
+      <c r="K135" s="64"/>
+      <c r="L135" s="67"/>
       <c r="M135" s="12">
         <v>2</v>
       </c>
@@ -9452,17 +9625,17 @@
       </c>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B136" s="75"/>
-      <c r="C136" s="59"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="62"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="62"/>
-      <c r="H136" s="62"/>
-      <c r="I136" s="62"/>
-      <c r="J136" s="62"/>
-      <c r="K136" s="62"/>
-      <c r="L136" s="56"/>
+      <c r="B136" s="69"/>
+      <c r="C136" s="72"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="64"/>
+      <c r="H136" s="64"/>
+      <c r="I136" s="64"/>
+      <c r="J136" s="64"/>
+      <c r="K136" s="64"/>
+      <c r="L136" s="67"/>
       <c r="M136" s="12">
         <v>3</v>
       </c>
@@ -9476,17 +9649,17 @@
       </c>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B137" s="75"/>
-      <c r="C137" s="59"/>
-      <c r="D137" s="62"/>
-      <c r="E137" s="62"/>
-      <c r="F137" s="65"/>
-      <c r="G137" s="62"/>
-      <c r="H137" s="62"/>
-      <c r="I137" s="62"/>
-      <c r="J137" s="62"/>
-      <c r="K137" s="62"/>
-      <c r="L137" s="56"/>
+      <c r="B137" s="69"/>
+      <c r="C137" s="72"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="64"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="64"/>
+      <c r="H137" s="64"/>
+      <c r="I137" s="64"/>
+      <c r="J137" s="64"/>
+      <c r="K137" s="64"/>
+      <c r="L137" s="67"/>
       <c r="M137" s="12">
         <v>4</v>
       </c>
@@ -9500,17 +9673,17 @@
       </c>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B138" s="75"/>
-      <c r="C138" s="59"/>
-      <c r="D138" s="62"/>
-      <c r="E138" s="62"/>
-      <c r="F138" s="65"/>
-      <c r="G138" s="62"/>
-      <c r="H138" s="62"/>
-      <c r="I138" s="62"/>
-      <c r="J138" s="62"/>
-      <c r="K138" s="62"/>
-      <c r="L138" s="56"/>
+      <c r="B138" s="69"/>
+      <c r="C138" s="72"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="64"/>
+      <c r="F138" s="78"/>
+      <c r="G138" s="64"/>
+      <c r="H138" s="64"/>
+      <c r="I138" s="64"/>
+      <c r="J138" s="64"/>
+      <c r="K138" s="64"/>
+      <c r="L138" s="67"/>
       <c r="M138" s="12">
         <v>5</v>
       </c>
@@ -9524,17 +9697,17 @@
       </c>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B139" s="75"/>
-      <c r="C139" s="59"/>
-      <c r="D139" s="62"/>
-      <c r="E139" s="62"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="62"/>
-      <c r="H139" s="62"/>
-      <c r="I139" s="62"/>
-      <c r="J139" s="62"/>
-      <c r="K139" s="62"/>
-      <c r="L139" s="55" t="s">
+      <c r="B139" s="69"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="64"/>
+      <c r="F139" s="78"/>
+      <c r="G139" s="64"/>
+      <c r="H139" s="64"/>
+      <c r="I139" s="64"/>
+      <c r="J139" s="64"/>
+      <c r="K139" s="64"/>
+      <c r="L139" s="66" t="s">
         <v>37</v>
       </c>
       <c r="M139" s="5">
@@ -9550,17 +9723,17 @@
       </c>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B140" s="75"/>
-      <c r="C140" s="59"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="62"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="62"/>
-      <c r="H140" s="62"/>
-      <c r="I140" s="62"/>
-      <c r="J140" s="62"/>
-      <c r="K140" s="62"/>
-      <c r="L140" s="56"/>
+      <c r="B140" s="69"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="64"/>
+      <c r="F140" s="78"/>
+      <c r="G140" s="64"/>
+      <c r="H140" s="64"/>
+      <c r="I140" s="64"/>
+      <c r="J140" s="64"/>
+      <c r="K140" s="64"/>
+      <c r="L140" s="67"/>
       <c r="M140" s="12">
         <v>2</v>
       </c>
@@ -9574,41 +9747,41 @@
       </c>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B141" s="75"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="62"/>
-      <c r="E141" s="62"/>
-      <c r="F141" s="65"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="62"/>
-      <c r="J141" s="62"/>
-      <c r="K141" s="62"/>
-      <c r="L141" s="56"/>
+      <c r="B141" s="69"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="64"/>
+      <c r="F141" s="78"/>
+      <c r="G141" s="64"/>
+      <c r="H141" s="64"/>
+      <c r="I141" s="64"/>
+      <c r="J141" s="64"/>
+      <c r="K141" s="64"/>
+      <c r="L141" s="67"/>
       <c r="M141" s="12">
         <v>3</v>
       </c>
-      <c r="N141" s="30" t="str">
+      <c r="N141" s="30">
         <f>IF('JIMMY CLASSES'!E46="","",'JIMMY CLASSES'!E46)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="O141" s="31" t="str">
         <f>IF(N141="","",'JIMMY CLASSES'!F46)</f>
-        <v/>
+        <v>Sí</v>
       </c>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B142" s="75"/>
-      <c r="C142" s="59"/>
-      <c r="D142" s="62"/>
-      <c r="E142" s="62"/>
-      <c r="F142" s="65"/>
-      <c r="G142" s="62"/>
-      <c r="H142" s="62"/>
-      <c r="I142" s="62"/>
-      <c r="J142" s="62"/>
-      <c r="K142" s="62"/>
-      <c r="L142" s="56"/>
+      <c r="B142" s="69"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="78"/>
+      <c r="G142" s="64"/>
+      <c r="H142" s="64"/>
+      <c r="I142" s="64"/>
+      <c r="J142" s="64"/>
+      <c r="K142" s="64"/>
+      <c r="L142" s="67"/>
       <c r="M142" s="12">
         <v>4</v>
       </c>
@@ -9622,17 +9795,17 @@
       </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B143" s="75"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="62"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="65"/>
-      <c r="G143" s="62"/>
-      <c r="H143" s="62"/>
-      <c r="I143" s="62"/>
-      <c r="J143" s="62"/>
-      <c r="K143" s="62"/>
-      <c r="L143" s="56"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="72"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="78"/>
+      <c r="G143" s="64"/>
+      <c r="H143" s="64"/>
+      <c r="I143" s="64"/>
+      <c r="J143" s="64"/>
+      <c r="K143" s="64"/>
+      <c r="L143" s="67"/>
       <c r="M143" s="12">
         <v>5</v>
       </c>
@@ -9646,17 +9819,17 @@
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B144" s="75"/>
-      <c r="C144" s="59"/>
-      <c r="D144" s="62"/>
-      <c r="E144" s="62"/>
-      <c r="F144" s="65"/>
-      <c r="G144" s="62"/>
-      <c r="H144" s="62"/>
-      <c r="I144" s="62"/>
-      <c r="J144" s="62"/>
-      <c r="K144" s="62"/>
-      <c r="L144" s="55" t="s">
+      <c r="B144" s="69"/>
+      <c r="C144" s="72"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="64"/>
+      <c r="H144" s="64"/>
+      <c r="I144" s="64"/>
+      <c r="J144" s="64"/>
+      <c r="K144" s="64"/>
+      <c r="L144" s="66" t="s">
         <v>61</v>
       </c>
       <c r="M144" s="5">
@@ -9672,17 +9845,17 @@
       </c>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B145" s="75"/>
-      <c r="C145" s="59"/>
-      <c r="D145" s="62"/>
-      <c r="E145" s="62"/>
-      <c r="F145" s="65"/>
-      <c r="G145" s="62"/>
-      <c r="H145" s="62"/>
-      <c r="I145" s="62"/>
-      <c r="J145" s="62"/>
-      <c r="K145" s="62"/>
-      <c r="L145" s="56"/>
+      <c r="B145" s="69"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="64"/>
+      <c r="F145" s="78"/>
+      <c r="G145" s="64"/>
+      <c r="H145" s="64"/>
+      <c r="I145" s="64"/>
+      <c r="J145" s="64"/>
+      <c r="K145" s="64"/>
+      <c r="L145" s="67"/>
       <c r="M145" s="12">
         <v>2</v>
       </c>
@@ -9696,17 +9869,17 @@
       </c>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B146" s="75"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="62"/>
-      <c r="F146" s="65"/>
-      <c r="G146" s="62"/>
-      <c r="H146" s="62"/>
-      <c r="I146" s="62"/>
-      <c r="J146" s="62"/>
-      <c r="K146" s="62"/>
-      <c r="L146" s="56"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="64"/>
+      <c r="F146" s="78"/>
+      <c r="G146" s="64"/>
+      <c r="H146" s="64"/>
+      <c r="I146" s="64"/>
+      <c r="J146" s="64"/>
+      <c r="K146" s="64"/>
+      <c r="L146" s="67"/>
       <c r="M146" s="12">
         <v>3</v>
       </c>
@@ -9720,17 +9893,17 @@
       </c>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B147" s="75"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="62"/>
-      <c r="E147" s="62"/>
-      <c r="F147" s="65"/>
-      <c r="G147" s="62"/>
-      <c r="H147" s="62"/>
-      <c r="I147" s="62"/>
-      <c r="J147" s="62"/>
-      <c r="K147" s="62"/>
-      <c r="L147" s="56"/>
+      <c r="B147" s="69"/>
+      <c r="C147" s="72"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="78"/>
+      <c r="G147" s="64"/>
+      <c r="H147" s="64"/>
+      <c r="I147" s="64"/>
+      <c r="J147" s="64"/>
+      <c r="K147" s="64"/>
+      <c r="L147" s="67"/>
       <c r="M147" s="12">
         <v>4</v>
       </c>
@@ -9744,17 +9917,17 @@
       </c>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B148" s="76"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="63"/>
-      <c r="E148" s="63"/>
-      <c r="F148" s="66"/>
-      <c r="G148" s="63"/>
-      <c r="H148" s="63"/>
-      <c r="I148" s="63"/>
-      <c r="J148" s="63"/>
-      <c r="K148" s="63"/>
-      <c r="L148" s="56"/>
+      <c r="B148" s="70"/>
+      <c r="C148" s="73"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="65"/>
+      <c r="F148" s="79"/>
+      <c r="G148" s="65"/>
+      <c r="H148" s="65"/>
+      <c r="I148" s="65"/>
+      <c r="J148" s="65"/>
+      <c r="K148" s="65"/>
+      <c r="L148" s="67"/>
       <c r="M148" s="12">
         <v>5</v>
       </c>
@@ -9768,38 +9941,38 @@
       </c>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B149" s="58" t="s">
+      <c r="B149" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C149" s="58" t="s">
+      <c r="C149" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D149" s="61" t="s">
+      <c r="D149" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E149" s="61" t="str">
+      <c r="E149" s="63" t="str">
         <f>E79</f>
         <v>AGOSTO</v>
       </c>
-      <c r="F149" s="64">
-        <v>1</v>
-      </c>
-      <c r="G149" s="61" t="s">
+      <c r="F149" s="77">
+        <v>1</v>
+      </c>
+      <c r="G149" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="H149" s="61" t="s">
+      <c r="H149" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I149" s="61" t="s">
+      <c r="I149" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J149" s="61" t="s">
+      <c r="J149" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="K149" s="61" t="s">
+      <c r="K149" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="L149" s="55" t="s">
+      <c r="L149" s="66" t="s">
         <v>30</v>
       </c>
       <c r="M149" s="5">
@@ -9820,17 +9993,17 @@
       <c r="T149" s="1"/>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B150" s="59"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="62"/>
-      <c r="E150" s="62"/>
-      <c r="F150" s="65"/>
-      <c r="G150" s="62"/>
-      <c r="H150" s="62"/>
-      <c r="I150" s="62"/>
-      <c r="J150" s="62"/>
-      <c r="K150" s="62"/>
-      <c r="L150" s="56"/>
+      <c r="B150" s="72"/>
+      <c r="C150" s="72"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="64"/>
+      <c r="F150" s="78"/>
+      <c r="G150" s="64"/>
+      <c r="H150" s="64"/>
+      <c r="I150" s="64"/>
+      <c r="J150" s="64"/>
+      <c r="K150" s="64"/>
+      <c r="L150" s="67"/>
       <c r="M150" s="12">
         <v>2</v>
       </c>
@@ -9849,17 +10022,17 @@
       <c r="T150" s="1"/>
     </row>
     <row r="151" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B151" s="59"/>
-      <c r="C151" s="59"/>
-      <c r="D151" s="62"/>
-      <c r="E151" s="62"/>
-      <c r="F151" s="65"/>
-      <c r="G151" s="62"/>
-      <c r="H151" s="62"/>
-      <c r="I151" s="62"/>
-      <c r="J151" s="62"/>
-      <c r="K151" s="62"/>
-      <c r="L151" s="56"/>
+      <c r="B151" s="72"/>
+      <c r="C151" s="72"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="64"/>
+      <c r="F151" s="78"/>
+      <c r="G151" s="64"/>
+      <c r="H151" s="64"/>
+      <c r="I151" s="64"/>
+      <c r="J151" s="64"/>
+      <c r="K151" s="64"/>
+      <c r="L151" s="67"/>
       <c r="M151" s="12">
         <v>3</v>
       </c>
@@ -9878,27 +10051,27 @@
       <c r="T151" s="1"/>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B152" s="59"/>
-      <c r="C152" s="59"/>
-      <c r="D152" s="62"/>
-      <c r="E152" s="62"/>
-      <c r="F152" s="65"/>
-      <c r="G152" s="62"/>
-      <c r="H152" s="62"/>
-      <c r="I152" s="62"/>
-      <c r="J152" s="62"/>
-      <c r="K152" s="62"/>
-      <c r="L152" s="56"/>
+      <c r="B152" s="72"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="64"/>
+      <c r="F152" s="78"/>
+      <c r="G152" s="64"/>
+      <c r="H152" s="64"/>
+      <c r="I152" s="64"/>
+      <c r="J152" s="64"/>
+      <c r="K152" s="64"/>
+      <c r="L152" s="67"/>
       <c r="M152" s="12">
         <v>4</v>
       </c>
-      <c r="N152" s="30" t="str">
+      <c r="N152" s="30">
         <f>IF('MANUEL CLASSES'!E36="","",'MANUEL CLASSES'!E36)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O152" s="31" t="str">
         <f>IF(N152="","",'MANUEL CLASSES'!F36)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
@@ -9907,17 +10080,17 @@
       <c r="T152" s="1"/>
     </row>
     <row r="153" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B153" s="59"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="62"/>
-      <c r="E153" s="62"/>
-      <c r="F153" s="65"/>
-      <c r="G153" s="62"/>
-      <c r="H153" s="62"/>
-      <c r="I153" s="62"/>
-      <c r="J153" s="62"/>
-      <c r="K153" s="62"/>
-      <c r="L153" s="56"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="64"/>
+      <c r="E153" s="64"/>
+      <c r="F153" s="78"/>
+      <c r="G153" s="64"/>
+      <c r="H153" s="64"/>
+      <c r="I153" s="64"/>
+      <c r="J153" s="64"/>
+      <c r="K153" s="64"/>
+      <c r="L153" s="67"/>
       <c r="M153" s="12">
         <v>5</v>
       </c>
@@ -9936,17 +10109,17 @@
       <c r="T153" s="1"/>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B154" s="59"/>
-      <c r="C154" s="59"/>
-      <c r="D154" s="62"/>
-      <c r="E154" s="62"/>
-      <c r="F154" s="65"/>
-      <c r="G154" s="62"/>
-      <c r="H154" s="62"/>
-      <c r="I154" s="62"/>
-      <c r="J154" s="62"/>
-      <c r="K154" s="62"/>
-      <c r="L154" s="55" t="s">
+      <c r="B154" s="72"/>
+      <c r="C154" s="72"/>
+      <c r="D154" s="64"/>
+      <c r="E154" s="64"/>
+      <c r="F154" s="78"/>
+      <c r="G154" s="64"/>
+      <c r="H154" s="64"/>
+      <c r="I154" s="64"/>
+      <c r="J154" s="64"/>
+      <c r="K154" s="64"/>
+      <c r="L154" s="66" t="s">
         <v>31</v>
       </c>
       <c r="M154" s="5">
@@ -9967,17 +10140,17 @@
       <c r="T154" s="1"/>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B155" s="59"/>
-      <c r="C155" s="59"/>
-      <c r="D155" s="62"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="65"/>
-      <c r="G155" s="62"/>
-      <c r="H155" s="62"/>
-      <c r="I155" s="62"/>
-      <c r="J155" s="62"/>
-      <c r="K155" s="62"/>
-      <c r="L155" s="56"/>
+      <c r="B155" s="72"/>
+      <c r="C155" s="72"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="64"/>
+      <c r="F155" s="78"/>
+      <c r="G155" s="64"/>
+      <c r="H155" s="64"/>
+      <c r="I155" s="64"/>
+      <c r="J155" s="64"/>
+      <c r="K155" s="64"/>
+      <c r="L155" s="67"/>
       <c r="M155" s="12">
         <v>2</v>
       </c>
@@ -9996,17 +10169,17 @@
       <c r="T155" s="1"/>
     </row>
     <row r="156" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B156" s="59"/>
-      <c r="C156" s="59"/>
-      <c r="D156" s="62"/>
-      <c r="E156" s="62"/>
-      <c r="F156" s="65"/>
-      <c r="G156" s="62"/>
-      <c r="H156" s="62"/>
-      <c r="I156" s="62"/>
-      <c r="J156" s="62"/>
-      <c r="K156" s="62"/>
-      <c r="L156" s="56"/>
+      <c r="B156" s="72"/>
+      <c r="C156" s="72"/>
+      <c r="D156" s="64"/>
+      <c r="E156" s="64"/>
+      <c r="F156" s="78"/>
+      <c r="G156" s="64"/>
+      <c r="H156" s="64"/>
+      <c r="I156" s="64"/>
+      <c r="J156" s="64"/>
+      <c r="K156" s="64"/>
+      <c r="L156" s="67"/>
       <c r="M156" s="12">
         <v>3</v>
       </c>
@@ -10025,17 +10198,17 @@
       <c r="T156" s="1"/>
     </row>
     <row r="157" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B157" s="59"/>
-      <c r="C157" s="59"/>
-      <c r="D157" s="62"/>
-      <c r="E157" s="62"/>
-      <c r="F157" s="65"/>
-      <c r="G157" s="62"/>
-      <c r="H157" s="62"/>
-      <c r="I157" s="62"/>
-      <c r="J157" s="62"/>
-      <c r="K157" s="62"/>
-      <c r="L157" s="56"/>
+      <c r="B157" s="72"/>
+      <c r="C157" s="72"/>
+      <c r="D157" s="64"/>
+      <c r="E157" s="64"/>
+      <c r="F157" s="78"/>
+      <c r="G157" s="64"/>
+      <c r="H157" s="64"/>
+      <c r="I157" s="64"/>
+      <c r="J157" s="64"/>
+      <c r="K157" s="64"/>
+      <c r="L157" s="67"/>
       <c r="M157" s="12">
         <v>4</v>
       </c>
@@ -10054,17 +10227,17 @@
       <c r="T157" s="1"/>
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B158" s="59"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="62"/>
-      <c r="E158" s="62"/>
-      <c r="F158" s="65"/>
-      <c r="G158" s="62"/>
-      <c r="H158" s="62"/>
-      <c r="I158" s="62"/>
-      <c r="J158" s="62"/>
-      <c r="K158" s="62"/>
-      <c r="L158" s="56"/>
+      <c r="B158" s="72"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="64"/>
+      <c r="E158" s="64"/>
+      <c r="F158" s="78"/>
+      <c r="G158" s="64"/>
+      <c r="H158" s="64"/>
+      <c r="I158" s="64"/>
+      <c r="J158" s="64"/>
+      <c r="K158" s="64"/>
+      <c r="L158" s="67"/>
       <c r="M158" s="12">
         <v>5</v>
       </c>
@@ -10083,17 +10256,17 @@
       <c r="T158" s="1"/>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B159" s="59"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="62"/>
-      <c r="E159" s="62"/>
-      <c r="F159" s="65"/>
-      <c r="G159" s="62"/>
-      <c r="H159" s="62"/>
-      <c r="I159" s="62"/>
-      <c r="J159" s="62"/>
-      <c r="K159" s="62"/>
-      <c r="L159" s="55" t="s">
+      <c r="B159" s="72"/>
+      <c r="C159" s="72"/>
+      <c r="D159" s="64"/>
+      <c r="E159" s="64"/>
+      <c r="F159" s="78"/>
+      <c r="G159" s="64"/>
+      <c r="H159" s="64"/>
+      <c r="I159" s="64"/>
+      <c r="J159" s="64"/>
+      <c r="K159" s="64"/>
+      <c r="L159" s="66" t="s">
         <v>62</v>
       </c>
       <c r="M159" s="5">
@@ -10114,17 +10287,17 @@
       <c r="T159" s="1"/>
     </row>
     <row r="160" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B160" s="59"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="62"/>
-      <c r="E160" s="62"/>
-      <c r="F160" s="65"/>
-      <c r="G160" s="62"/>
-      <c r="H160" s="62"/>
-      <c r="I160" s="62"/>
-      <c r="J160" s="62"/>
-      <c r="K160" s="62"/>
-      <c r="L160" s="56"/>
+      <c r="B160" s="72"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="64"/>
+      <c r="E160" s="64"/>
+      <c r="F160" s="78"/>
+      <c r="G160" s="64"/>
+      <c r="H160" s="64"/>
+      <c r="I160" s="64"/>
+      <c r="J160" s="64"/>
+      <c r="K160" s="64"/>
+      <c r="L160" s="67"/>
       <c r="M160" s="12">
         <v>2</v>
       </c>
@@ -10143,17 +10316,17 @@
       <c r="T160" s="1"/>
     </row>
     <row r="161" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B161" s="59"/>
-      <c r="C161" s="59"/>
-      <c r="D161" s="62"/>
-      <c r="E161" s="62"/>
-      <c r="F161" s="65"/>
-      <c r="G161" s="62"/>
-      <c r="H161" s="62"/>
-      <c r="I161" s="62"/>
-      <c r="J161" s="62"/>
-      <c r="K161" s="62"/>
-      <c r="L161" s="56"/>
+      <c r="B161" s="72"/>
+      <c r="C161" s="72"/>
+      <c r="D161" s="64"/>
+      <c r="E161" s="64"/>
+      <c r="F161" s="78"/>
+      <c r="G161" s="64"/>
+      <c r="H161" s="64"/>
+      <c r="I161" s="64"/>
+      <c r="J161" s="64"/>
+      <c r="K161" s="64"/>
+      <c r="L161" s="67"/>
       <c r="M161" s="12">
         <v>3</v>
       </c>
@@ -10172,27 +10345,27 @@
       <c r="T161" s="1"/>
     </row>
     <row r="162" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B162" s="59"/>
-      <c r="C162" s="59"/>
-      <c r="D162" s="62"/>
-      <c r="E162" s="62"/>
-      <c r="F162" s="65"/>
-      <c r="G162" s="62"/>
-      <c r="H162" s="62"/>
-      <c r="I162" s="62"/>
-      <c r="J162" s="62"/>
-      <c r="K162" s="62"/>
-      <c r="L162" s="56"/>
+      <c r="B162" s="72"/>
+      <c r="C162" s="72"/>
+      <c r="D162" s="64"/>
+      <c r="E162" s="64"/>
+      <c r="F162" s="78"/>
+      <c r="G162" s="64"/>
+      <c r="H162" s="64"/>
+      <c r="I162" s="64"/>
+      <c r="J162" s="64"/>
+      <c r="K162" s="64"/>
+      <c r="L162" s="67"/>
       <c r="M162" s="12">
         <v>4</v>
       </c>
-      <c r="N162" s="30" t="str">
+      <c r="N162" s="30">
         <f>IF('MANUEL CLASSES'!E38="","",'MANUEL CLASSES'!E38)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O162" s="31" t="str">
         <f>IF(N162="","",'MANUEL CLASSES'!F38)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
@@ -10201,17 +10374,17 @@
       <c r="T162" s="1"/>
     </row>
     <row r="163" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B163" s="59"/>
-      <c r="C163" s="59"/>
-      <c r="D163" s="62"/>
-      <c r="E163" s="62"/>
-      <c r="F163" s="65"/>
-      <c r="G163" s="62"/>
-      <c r="H163" s="62"/>
-      <c r="I163" s="62"/>
-      <c r="J163" s="62"/>
-      <c r="K163" s="62"/>
-      <c r="L163" s="56"/>
+      <c r="B163" s="72"/>
+      <c r="C163" s="72"/>
+      <c r="D163" s="64"/>
+      <c r="E163" s="64"/>
+      <c r="F163" s="78"/>
+      <c r="G163" s="64"/>
+      <c r="H163" s="64"/>
+      <c r="I163" s="64"/>
+      <c r="J163" s="64"/>
+      <c r="K163" s="64"/>
+      <c r="L163" s="67"/>
       <c r="M163" s="12">
         <v>5</v>
       </c>
@@ -10230,17 +10403,17 @@
       <c r="T163" s="1"/>
     </row>
     <row r="164" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B164" s="59"/>
-      <c r="C164" s="59"/>
-      <c r="D164" s="62"/>
-      <c r="E164" s="62"/>
-      <c r="F164" s="65"/>
-      <c r="G164" s="62"/>
-      <c r="H164" s="62"/>
-      <c r="I164" s="62"/>
-      <c r="J164" s="62"/>
-      <c r="K164" s="62"/>
-      <c r="L164" s="55" t="s">
+      <c r="B164" s="72"/>
+      <c r="C164" s="72"/>
+      <c r="D164" s="64"/>
+      <c r="E164" s="64"/>
+      <c r="F164" s="78"/>
+      <c r="G164" s="64"/>
+      <c r="H164" s="64"/>
+      <c r="I164" s="64"/>
+      <c r="J164" s="64"/>
+      <c r="K164" s="64"/>
+      <c r="L164" s="66" t="s">
         <v>63</v>
       </c>
       <c r="M164" s="5">
@@ -10261,17 +10434,17 @@
       <c r="T164" s="1"/>
     </row>
     <row r="165" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B165" s="59"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="62"/>
-      <c r="E165" s="62"/>
-      <c r="F165" s="65"/>
-      <c r="G165" s="62"/>
-      <c r="H165" s="62"/>
-      <c r="I165" s="62"/>
-      <c r="J165" s="62"/>
-      <c r="K165" s="62"/>
-      <c r="L165" s="56"/>
+      <c r="B165" s="72"/>
+      <c r="C165" s="72"/>
+      <c r="D165" s="64"/>
+      <c r="E165" s="64"/>
+      <c r="F165" s="78"/>
+      <c r="G165" s="64"/>
+      <c r="H165" s="64"/>
+      <c r="I165" s="64"/>
+      <c r="J165" s="64"/>
+      <c r="K165" s="64"/>
+      <c r="L165" s="67"/>
       <c r="M165" s="12">
         <v>2</v>
       </c>
@@ -10290,17 +10463,17 @@
       <c r="T165" s="1"/>
     </row>
     <row r="166" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B166" s="59"/>
-      <c r="C166" s="59"/>
-      <c r="D166" s="62"/>
-      <c r="E166" s="62"/>
-      <c r="F166" s="65"/>
-      <c r="G166" s="62"/>
-      <c r="H166" s="62"/>
-      <c r="I166" s="62"/>
-      <c r="J166" s="62"/>
-      <c r="K166" s="62"/>
-      <c r="L166" s="56"/>
+      <c r="B166" s="72"/>
+      <c r="C166" s="72"/>
+      <c r="D166" s="64"/>
+      <c r="E166" s="64"/>
+      <c r="F166" s="78"/>
+      <c r="G166" s="64"/>
+      <c r="H166" s="64"/>
+      <c r="I166" s="64"/>
+      <c r="J166" s="64"/>
+      <c r="K166" s="64"/>
+      <c r="L166" s="67"/>
       <c r="M166" s="12">
         <v>3</v>
       </c>
@@ -10319,17 +10492,17 @@
       <c r="T166" s="1"/>
     </row>
     <row r="167" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B167" s="59"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="62"/>
-      <c r="E167" s="62"/>
-      <c r="F167" s="65"/>
-      <c r="G167" s="62"/>
-      <c r="H167" s="62"/>
-      <c r="I167" s="62"/>
-      <c r="J167" s="62"/>
-      <c r="K167" s="62"/>
-      <c r="L167" s="56"/>
+      <c r="B167" s="72"/>
+      <c r="C167" s="72"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="64"/>
+      <c r="F167" s="78"/>
+      <c r="G167" s="64"/>
+      <c r="H167" s="64"/>
+      <c r="I167" s="64"/>
+      <c r="J167" s="64"/>
+      <c r="K167" s="64"/>
+      <c r="L167" s="67"/>
       <c r="M167" s="12">
         <v>4</v>
       </c>
@@ -10348,17 +10521,17 @@
       <c r="T167" s="1"/>
     </row>
     <row r="168" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B168" s="59"/>
-      <c r="C168" s="59"/>
-      <c r="D168" s="62"/>
-      <c r="E168" s="62"/>
-      <c r="F168" s="65"/>
-      <c r="G168" s="62"/>
-      <c r="H168" s="62"/>
-      <c r="I168" s="62"/>
-      <c r="J168" s="62"/>
-      <c r="K168" s="62"/>
-      <c r="L168" s="56"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="72"/>
+      <c r="D168" s="64"/>
+      <c r="E168" s="64"/>
+      <c r="F168" s="78"/>
+      <c r="G168" s="64"/>
+      <c r="H168" s="64"/>
+      <c r="I168" s="64"/>
+      <c r="J168" s="64"/>
+      <c r="K168" s="64"/>
+      <c r="L168" s="67"/>
       <c r="M168" s="12">
         <v>5</v>
       </c>
@@ -10377,17 +10550,17 @@
       <c r="T168" s="1"/>
     </row>
     <row r="169" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B169" s="59"/>
-      <c r="C169" s="59"/>
-      <c r="D169" s="62"/>
-      <c r="E169" s="62"/>
-      <c r="F169" s="65"/>
-      <c r="G169" s="62"/>
-      <c r="H169" s="62"/>
-      <c r="I169" s="62"/>
-      <c r="J169" s="62"/>
-      <c r="K169" s="62"/>
-      <c r="L169" s="55" t="s">
+      <c r="B169" s="72"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="64"/>
+      <c r="E169" s="64"/>
+      <c r="F169" s="78"/>
+      <c r="G169" s="64"/>
+      <c r="H169" s="64"/>
+      <c r="I169" s="64"/>
+      <c r="J169" s="64"/>
+      <c r="K169" s="64"/>
+      <c r="L169" s="66" t="s">
         <v>64</v>
       </c>
       <c r="M169" s="5">
@@ -10408,17 +10581,17 @@
       <c r="T169" s="1"/>
     </row>
     <row r="170" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B170" s="59"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="62"/>
-      <c r="E170" s="62"/>
-      <c r="F170" s="65"/>
-      <c r="G170" s="62"/>
-      <c r="H170" s="62"/>
-      <c r="I170" s="62"/>
-      <c r="J170" s="62"/>
-      <c r="K170" s="62"/>
-      <c r="L170" s="56"/>
+      <c r="B170" s="72"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="64"/>
+      <c r="E170" s="64"/>
+      <c r="F170" s="78"/>
+      <c r="G170" s="64"/>
+      <c r="H170" s="64"/>
+      <c r="I170" s="64"/>
+      <c r="J170" s="64"/>
+      <c r="K170" s="64"/>
+      <c r="L170" s="67"/>
       <c r="M170" s="12">
         <v>2</v>
       </c>
@@ -10437,17 +10610,17 @@
       <c r="T170" s="1"/>
     </row>
     <row r="171" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B171" s="59"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="62"/>
-      <c r="E171" s="62"/>
-      <c r="F171" s="65"/>
-      <c r="G171" s="62"/>
-      <c r="H171" s="62"/>
-      <c r="I171" s="62"/>
-      <c r="J171" s="62"/>
-      <c r="K171" s="62"/>
-      <c r="L171" s="56"/>
+      <c r="B171" s="72"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="64"/>
+      <c r="E171" s="64"/>
+      <c r="F171" s="78"/>
+      <c r="G171" s="64"/>
+      <c r="H171" s="64"/>
+      <c r="I171" s="64"/>
+      <c r="J171" s="64"/>
+      <c r="K171" s="64"/>
+      <c r="L171" s="67"/>
       <c r="M171" s="12">
         <v>3</v>
       </c>
@@ -10466,27 +10639,27 @@
       <c r="T171" s="1"/>
     </row>
     <row r="172" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B172" s="59"/>
-      <c r="C172" s="59"/>
-      <c r="D172" s="62"/>
-      <c r="E172" s="62"/>
-      <c r="F172" s="65"/>
-      <c r="G172" s="62"/>
-      <c r="H172" s="62"/>
-      <c r="I172" s="62"/>
-      <c r="J172" s="62"/>
-      <c r="K172" s="62"/>
-      <c r="L172" s="56"/>
+      <c r="B172" s="72"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="64"/>
+      <c r="E172" s="64"/>
+      <c r="F172" s="78"/>
+      <c r="G172" s="64"/>
+      <c r="H172" s="64"/>
+      <c r="I172" s="64"/>
+      <c r="J172" s="64"/>
+      <c r="K172" s="64"/>
+      <c r="L172" s="67"/>
       <c r="M172" s="12">
         <v>4</v>
       </c>
-      <c r="N172" s="30" t="str">
+      <c r="N172" s="30">
         <f>IF('MANUEL CLASSES'!E40="","",'MANUEL CLASSES'!E40)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O172" s="31" t="str">
         <f>IF(N172="","",'MANUEL CLASSES'!F40)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
@@ -10495,17 +10668,17 @@
       <c r="T172" s="1"/>
     </row>
     <row r="173" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B173" s="59"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="62"/>
-      <c r="E173" s="62"/>
-      <c r="F173" s="65"/>
-      <c r="G173" s="62"/>
-      <c r="H173" s="62"/>
-      <c r="I173" s="62"/>
-      <c r="J173" s="62"/>
-      <c r="K173" s="62"/>
-      <c r="L173" s="56"/>
+      <c r="B173" s="72"/>
+      <c r="C173" s="72"/>
+      <c r="D173" s="64"/>
+      <c r="E173" s="64"/>
+      <c r="F173" s="78"/>
+      <c r="G173" s="64"/>
+      <c r="H173" s="64"/>
+      <c r="I173" s="64"/>
+      <c r="J173" s="64"/>
+      <c r="K173" s="64"/>
+      <c r="L173" s="67"/>
       <c r="M173" s="12">
         <v>5</v>
       </c>
@@ -10524,17 +10697,17 @@
       <c r="T173" s="1"/>
     </row>
     <row r="174" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B174" s="59"/>
-      <c r="C174" s="59"/>
-      <c r="D174" s="62"/>
-      <c r="E174" s="62"/>
-      <c r="F174" s="65"/>
-      <c r="G174" s="62"/>
-      <c r="H174" s="62"/>
-      <c r="I174" s="62"/>
-      <c r="J174" s="62"/>
-      <c r="K174" s="62"/>
-      <c r="L174" s="55" t="s">
+      <c r="B174" s="72"/>
+      <c r="C174" s="72"/>
+      <c r="D174" s="64"/>
+      <c r="E174" s="64"/>
+      <c r="F174" s="78"/>
+      <c r="G174" s="64"/>
+      <c r="H174" s="64"/>
+      <c r="I174" s="64"/>
+      <c r="J174" s="64"/>
+      <c r="K174" s="64"/>
+      <c r="L174" s="66" t="s">
         <v>20</v>
       </c>
       <c r="M174" s="5">
@@ -10555,17 +10728,17 @@
       <c r="T174" s="1"/>
     </row>
     <row r="175" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B175" s="59"/>
-      <c r="C175" s="59"/>
-      <c r="D175" s="62"/>
-      <c r="E175" s="62"/>
-      <c r="F175" s="65"/>
-      <c r="G175" s="62"/>
-      <c r="H175" s="62"/>
-      <c r="I175" s="62"/>
-      <c r="J175" s="62"/>
-      <c r="K175" s="62"/>
-      <c r="L175" s="56"/>
+      <c r="B175" s="72"/>
+      <c r="C175" s="72"/>
+      <c r="D175" s="64"/>
+      <c r="E175" s="64"/>
+      <c r="F175" s="78"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="64"/>
+      <c r="I175" s="64"/>
+      <c r="J175" s="64"/>
+      <c r="K175" s="64"/>
+      <c r="L175" s="67"/>
       <c r="M175" s="12">
         <v>2</v>
       </c>
@@ -10584,17 +10757,17 @@
       <c r="T175" s="1"/>
     </row>
     <row r="176" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B176" s="59"/>
-      <c r="C176" s="59"/>
-      <c r="D176" s="62"/>
-      <c r="E176" s="62"/>
-      <c r="F176" s="65"/>
-      <c r="G176" s="62"/>
-      <c r="H176" s="62"/>
-      <c r="I176" s="62"/>
-      <c r="J176" s="62"/>
-      <c r="K176" s="62"/>
-      <c r="L176" s="56"/>
+      <c r="B176" s="72"/>
+      <c r="C176" s="72"/>
+      <c r="D176" s="64"/>
+      <c r="E176" s="64"/>
+      <c r="F176" s="78"/>
+      <c r="G176" s="64"/>
+      <c r="H176" s="64"/>
+      <c r="I176" s="64"/>
+      <c r="J176" s="64"/>
+      <c r="K176" s="64"/>
+      <c r="L176" s="67"/>
       <c r="M176" s="12">
         <v>3</v>
       </c>
@@ -10613,27 +10786,27 @@
       <c r="T176" s="1"/>
     </row>
     <row r="177" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B177" s="59"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="62"/>
-      <c r="E177" s="62"/>
-      <c r="F177" s="65"/>
-      <c r="G177" s="62"/>
-      <c r="H177" s="62"/>
-      <c r="I177" s="62"/>
-      <c r="J177" s="62"/>
-      <c r="K177" s="62"/>
-      <c r="L177" s="56"/>
+      <c r="B177" s="72"/>
+      <c r="C177" s="72"/>
+      <c r="D177" s="64"/>
+      <c r="E177" s="64"/>
+      <c r="F177" s="78"/>
+      <c r="G177" s="64"/>
+      <c r="H177" s="64"/>
+      <c r="I177" s="64"/>
+      <c r="J177" s="64"/>
+      <c r="K177" s="64"/>
+      <c r="L177" s="67"/>
       <c r="M177" s="12">
         <v>4</v>
       </c>
-      <c r="N177" s="30" t="str">
+      <c r="N177" s="30">
         <f>IF('MANUEL CLASSES'!E41="","",'MANUEL CLASSES'!E41)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O177" s="31" t="str">
         <f>IF(N177="","",'MANUEL CLASSES'!F41)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
@@ -10642,17 +10815,17 @@
       <c r="T177" s="1"/>
     </row>
     <row r="178" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B178" s="59"/>
-      <c r="C178" s="59"/>
-      <c r="D178" s="62"/>
-      <c r="E178" s="62"/>
-      <c r="F178" s="65"/>
-      <c r="G178" s="62"/>
-      <c r="H178" s="62"/>
-      <c r="I178" s="62"/>
-      <c r="J178" s="62"/>
-      <c r="K178" s="62"/>
-      <c r="L178" s="56"/>
+      <c r="B178" s="72"/>
+      <c r="C178" s="72"/>
+      <c r="D178" s="64"/>
+      <c r="E178" s="64"/>
+      <c r="F178" s="78"/>
+      <c r="G178" s="64"/>
+      <c r="H178" s="64"/>
+      <c r="I178" s="64"/>
+      <c r="J178" s="64"/>
+      <c r="K178" s="64"/>
+      <c r="L178" s="67"/>
       <c r="M178" s="12">
         <v>5</v>
       </c>
@@ -10671,17 +10844,17 @@
       <c r="T178" s="1"/>
     </row>
     <row r="179" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B179" s="59"/>
-      <c r="C179" s="59"/>
-      <c r="D179" s="62"/>
-      <c r="E179" s="62"/>
-      <c r="F179" s="65"/>
-      <c r="G179" s="62"/>
-      <c r="H179" s="62"/>
-      <c r="I179" s="62"/>
-      <c r="J179" s="62"/>
-      <c r="K179" s="62"/>
-      <c r="L179" s="55" t="s">
+      <c r="B179" s="72"/>
+      <c r="C179" s="72"/>
+      <c r="D179" s="64"/>
+      <c r="E179" s="64"/>
+      <c r="F179" s="78"/>
+      <c r="G179" s="64"/>
+      <c r="H179" s="64"/>
+      <c r="I179" s="64"/>
+      <c r="J179" s="64"/>
+      <c r="K179" s="64"/>
+      <c r="L179" s="66" t="s">
         <v>21</v>
       </c>
       <c r="M179" s="5">
@@ -10702,17 +10875,17 @@
       <c r="T179" s="1"/>
     </row>
     <row r="180" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B180" s="59"/>
-      <c r="C180" s="59"/>
-      <c r="D180" s="62"/>
-      <c r="E180" s="62"/>
-      <c r="F180" s="65"/>
-      <c r="G180" s="62"/>
-      <c r="H180" s="62"/>
-      <c r="I180" s="62"/>
-      <c r="J180" s="62"/>
-      <c r="K180" s="62"/>
-      <c r="L180" s="56"/>
+      <c r="B180" s="72"/>
+      <c r="C180" s="72"/>
+      <c r="D180" s="64"/>
+      <c r="E180" s="64"/>
+      <c r="F180" s="78"/>
+      <c r="G180" s="64"/>
+      <c r="H180" s="64"/>
+      <c r="I180" s="64"/>
+      <c r="J180" s="64"/>
+      <c r="K180" s="64"/>
+      <c r="L180" s="67"/>
       <c r="M180" s="12">
         <v>2</v>
       </c>
@@ -10731,17 +10904,17 @@
       <c r="T180" s="1"/>
     </row>
     <row r="181" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B181" s="59"/>
-      <c r="C181" s="59"/>
-      <c r="D181" s="62"/>
-      <c r="E181" s="62"/>
-      <c r="F181" s="65"/>
-      <c r="G181" s="62"/>
-      <c r="H181" s="62"/>
-      <c r="I181" s="62"/>
-      <c r="J181" s="62"/>
-      <c r="K181" s="62"/>
-      <c r="L181" s="56"/>
+      <c r="B181" s="72"/>
+      <c r="C181" s="72"/>
+      <c r="D181" s="64"/>
+      <c r="E181" s="64"/>
+      <c r="F181" s="78"/>
+      <c r="G181" s="64"/>
+      <c r="H181" s="64"/>
+      <c r="I181" s="64"/>
+      <c r="J181" s="64"/>
+      <c r="K181" s="64"/>
+      <c r="L181" s="67"/>
       <c r="M181" s="12">
         <v>3</v>
       </c>
@@ -10760,17 +10933,17 @@
       <c r="T181" s="1"/>
     </row>
     <row r="182" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B182" s="59"/>
-      <c r="C182" s="59"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="F182" s="65"/>
-      <c r="G182" s="62"/>
-      <c r="H182" s="62"/>
-      <c r="I182" s="62"/>
-      <c r="J182" s="62"/>
-      <c r="K182" s="62"/>
-      <c r="L182" s="56"/>
+      <c r="B182" s="72"/>
+      <c r="C182" s="72"/>
+      <c r="D182" s="64"/>
+      <c r="E182" s="64"/>
+      <c r="F182" s="78"/>
+      <c r="G182" s="64"/>
+      <c r="H182" s="64"/>
+      <c r="I182" s="64"/>
+      <c r="J182" s="64"/>
+      <c r="K182" s="64"/>
+      <c r="L182" s="67"/>
       <c r="M182" s="12">
         <v>4</v>
       </c>
@@ -10789,17 +10962,17 @@
       <c r="T182" s="1"/>
     </row>
     <row r="183" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B183" s="59"/>
-      <c r="C183" s="59"/>
-      <c r="D183" s="62"/>
-      <c r="E183" s="62"/>
-      <c r="F183" s="65"/>
-      <c r="G183" s="62"/>
-      <c r="H183" s="62"/>
-      <c r="I183" s="62"/>
-      <c r="J183" s="62"/>
-      <c r="K183" s="62"/>
-      <c r="L183" s="56"/>
+      <c r="B183" s="72"/>
+      <c r="C183" s="72"/>
+      <c r="D183" s="64"/>
+      <c r="E183" s="64"/>
+      <c r="F183" s="78"/>
+      <c r="G183" s="64"/>
+      <c r="H183" s="64"/>
+      <c r="I183" s="64"/>
+      <c r="J183" s="64"/>
+      <c r="K183" s="64"/>
+      <c r="L183" s="67"/>
       <c r="M183" s="12">
         <v>5</v>
       </c>
@@ -10818,17 +10991,17 @@
       <c r="T183" s="1"/>
     </row>
     <row r="184" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B184" s="59"/>
-      <c r="C184" s="59"/>
-      <c r="D184" s="62"/>
-      <c r="E184" s="62"/>
-      <c r="F184" s="65"/>
-      <c r="G184" s="62"/>
-      <c r="H184" s="62"/>
-      <c r="I184" s="62"/>
-      <c r="J184" s="62"/>
-      <c r="K184" s="62"/>
-      <c r="L184" s="55" t="s">
+      <c r="B184" s="72"/>
+      <c r="C184" s="72"/>
+      <c r="D184" s="64"/>
+      <c r="E184" s="64"/>
+      <c r="F184" s="78"/>
+      <c r="G184" s="64"/>
+      <c r="H184" s="64"/>
+      <c r="I184" s="64"/>
+      <c r="J184" s="64"/>
+      <c r="K184" s="64"/>
+      <c r="L184" s="66" t="s">
         <v>67</v>
       </c>
       <c r="M184" s="5">
@@ -10849,17 +11022,17 @@
       <c r="T184" s="1"/>
     </row>
     <row r="185" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B185" s="59"/>
-      <c r="C185" s="59"/>
-      <c r="D185" s="62"/>
-      <c r="E185" s="62"/>
-      <c r="F185" s="65"/>
-      <c r="G185" s="62"/>
-      <c r="H185" s="62"/>
-      <c r="I185" s="62"/>
-      <c r="J185" s="62"/>
-      <c r="K185" s="62"/>
-      <c r="L185" s="56"/>
+      <c r="B185" s="72"/>
+      <c r="C185" s="72"/>
+      <c r="D185" s="64"/>
+      <c r="E185" s="64"/>
+      <c r="F185" s="78"/>
+      <c r="G185" s="64"/>
+      <c r="H185" s="64"/>
+      <c r="I185" s="64"/>
+      <c r="J185" s="64"/>
+      <c r="K185" s="64"/>
+      <c r="L185" s="67"/>
       <c r="M185" s="12">
         <v>2</v>
       </c>
@@ -10878,17 +11051,17 @@
       <c r="T185" s="1"/>
     </row>
     <row r="186" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B186" s="59"/>
-      <c r="C186" s="59"/>
-      <c r="D186" s="62"/>
-      <c r="E186" s="62"/>
-      <c r="F186" s="65"/>
-      <c r="G186" s="62"/>
-      <c r="H186" s="62"/>
-      <c r="I186" s="62"/>
-      <c r="J186" s="62"/>
-      <c r="K186" s="62"/>
-      <c r="L186" s="56"/>
+      <c r="B186" s="72"/>
+      <c r="C186" s="72"/>
+      <c r="D186" s="64"/>
+      <c r="E186" s="64"/>
+      <c r="F186" s="78"/>
+      <c r="G186" s="64"/>
+      <c r="H186" s="64"/>
+      <c r="I186" s="64"/>
+      <c r="J186" s="64"/>
+      <c r="K186" s="64"/>
+      <c r="L186" s="67"/>
       <c r="M186" s="12">
         <v>3</v>
       </c>
@@ -10907,27 +11080,27 @@
       <c r="T186" s="1"/>
     </row>
     <row r="187" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B187" s="59"/>
-      <c r="C187" s="59"/>
-      <c r="D187" s="62"/>
-      <c r="E187" s="62"/>
-      <c r="F187" s="65"/>
-      <c r="G187" s="62"/>
-      <c r="H187" s="62"/>
-      <c r="I187" s="62"/>
-      <c r="J187" s="62"/>
-      <c r="K187" s="62"/>
-      <c r="L187" s="56"/>
+      <c r="B187" s="72"/>
+      <c r="C187" s="72"/>
+      <c r="D187" s="64"/>
+      <c r="E187" s="64"/>
+      <c r="F187" s="78"/>
+      <c r="G187" s="64"/>
+      <c r="H187" s="64"/>
+      <c r="I187" s="64"/>
+      <c r="J187" s="64"/>
+      <c r="K187" s="64"/>
+      <c r="L187" s="67"/>
       <c r="M187" s="12">
         <v>4</v>
       </c>
-      <c r="N187" s="30" t="str">
+      <c r="N187" s="30">
         <f>IF('MANUEL CLASSES'!E43="","",'MANUEL CLASSES'!E43)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O187" s="31" t="str">
         <f>IF(N187="","",'MANUEL CLASSES'!F43)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
@@ -10936,17 +11109,17 @@
       <c r="T187" s="1"/>
     </row>
     <row r="188" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B188" s="59"/>
-      <c r="C188" s="59"/>
-      <c r="D188" s="62"/>
-      <c r="E188" s="62"/>
-      <c r="F188" s="65"/>
-      <c r="G188" s="62"/>
-      <c r="H188" s="62"/>
-      <c r="I188" s="62"/>
-      <c r="J188" s="62"/>
-      <c r="K188" s="62"/>
-      <c r="L188" s="56"/>
+      <c r="B188" s="72"/>
+      <c r="C188" s="72"/>
+      <c r="D188" s="64"/>
+      <c r="E188" s="64"/>
+      <c r="F188" s="78"/>
+      <c r="G188" s="64"/>
+      <c r="H188" s="64"/>
+      <c r="I188" s="64"/>
+      <c r="J188" s="64"/>
+      <c r="K188" s="64"/>
+      <c r="L188" s="67"/>
       <c r="M188" s="12">
         <v>5</v>
       </c>
@@ -10965,17 +11138,17 @@
       <c r="T188" s="1"/>
     </row>
     <row r="189" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B189" s="59"/>
-      <c r="C189" s="59"/>
-      <c r="D189" s="62"/>
-      <c r="E189" s="62"/>
-      <c r="F189" s="65"/>
-      <c r="G189" s="62"/>
-      <c r="H189" s="62"/>
-      <c r="I189" s="62"/>
-      <c r="J189" s="62"/>
-      <c r="K189" s="62"/>
-      <c r="L189" s="57" t="s">
+      <c r="B189" s="72"/>
+      <c r="C189" s="72"/>
+      <c r="D189" s="64"/>
+      <c r="E189" s="64"/>
+      <c r="F189" s="78"/>
+      <c r="G189" s="64"/>
+      <c r="H189" s="64"/>
+      <c r="I189" s="64"/>
+      <c r="J189" s="64"/>
+      <c r="K189" s="64"/>
+      <c r="L189" s="82" t="s">
         <v>65</v>
       </c>
       <c r="M189" s="5">
@@ -10996,17 +11169,17 @@
       <c r="T189" s="1"/>
     </row>
     <row r="190" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B190" s="59"/>
-      <c r="C190" s="59"/>
-      <c r="D190" s="62"/>
-      <c r="E190" s="62"/>
-      <c r="F190" s="65"/>
-      <c r="G190" s="62"/>
-      <c r="H190" s="62"/>
-      <c r="I190" s="62"/>
-      <c r="J190" s="62"/>
-      <c r="K190" s="62"/>
-      <c r="L190" s="56"/>
+      <c r="B190" s="72"/>
+      <c r="C190" s="72"/>
+      <c r="D190" s="64"/>
+      <c r="E190" s="64"/>
+      <c r="F190" s="78"/>
+      <c r="G190" s="64"/>
+      <c r="H190" s="64"/>
+      <c r="I190" s="64"/>
+      <c r="J190" s="64"/>
+      <c r="K190" s="64"/>
+      <c r="L190" s="67"/>
       <c r="M190" s="12">
         <v>2</v>
       </c>
@@ -11025,17 +11198,17 @@
       <c r="T190" s="1"/>
     </row>
     <row r="191" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B191" s="59"/>
-      <c r="C191" s="59"/>
-      <c r="D191" s="62"/>
-      <c r="E191" s="62"/>
-      <c r="F191" s="65"/>
-      <c r="G191" s="62"/>
-      <c r="H191" s="62"/>
-      <c r="I191" s="62"/>
-      <c r="J191" s="62"/>
-      <c r="K191" s="62"/>
-      <c r="L191" s="56"/>
+      <c r="B191" s="72"/>
+      <c r="C191" s="72"/>
+      <c r="D191" s="64"/>
+      <c r="E191" s="64"/>
+      <c r="F191" s="78"/>
+      <c r="G191" s="64"/>
+      <c r="H191" s="64"/>
+      <c r="I191" s="64"/>
+      <c r="J191" s="64"/>
+      <c r="K191" s="64"/>
+      <c r="L191" s="67"/>
       <c r="M191" s="12">
         <v>3</v>
       </c>
@@ -11054,27 +11227,27 @@
       <c r="T191" s="1"/>
     </row>
     <row r="192" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B192" s="59"/>
-      <c r="C192" s="59"/>
-      <c r="D192" s="62"/>
-      <c r="E192" s="62"/>
-      <c r="F192" s="65"/>
-      <c r="G192" s="62"/>
-      <c r="H192" s="62"/>
-      <c r="I192" s="62"/>
-      <c r="J192" s="62"/>
-      <c r="K192" s="62"/>
-      <c r="L192" s="56"/>
+      <c r="B192" s="72"/>
+      <c r="C192" s="72"/>
+      <c r="D192" s="64"/>
+      <c r="E192" s="64"/>
+      <c r="F192" s="78"/>
+      <c r="G192" s="64"/>
+      <c r="H192" s="64"/>
+      <c r="I192" s="64"/>
+      <c r="J192" s="64"/>
+      <c r="K192" s="64"/>
+      <c r="L192" s="67"/>
       <c r="M192" s="12">
         <v>4</v>
       </c>
-      <c r="N192" s="30" t="str">
+      <c r="N192" s="30">
         <f>IF('MANUEL CLASSES'!E44="","",'MANUEL CLASSES'!E44)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="O192" s="31" t="str">
         <f>IF(N192="","",'MANUEL CLASSES'!F44)</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
@@ -11083,17 +11256,17 @@
       <c r="T192" s="1"/>
     </row>
     <row r="193" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B193" s="59"/>
-      <c r="C193" s="59"/>
-      <c r="D193" s="62"/>
-      <c r="E193" s="62"/>
-      <c r="F193" s="65"/>
-      <c r="G193" s="62"/>
-      <c r="H193" s="62"/>
-      <c r="I193" s="62"/>
-      <c r="J193" s="62"/>
-      <c r="K193" s="62"/>
-      <c r="L193" s="56"/>
+      <c r="B193" s="72"/>
+      <c r="C193" s="72"/>
+      <c r="D193" s="64"/>
+      <c r="E193" s="64"/>
+      <c r="F193" s="78"/>
+      <c r="G193" s="64"/>
+      <c r="H193" s="64"/>
+      <c r="I193" s="64"/>
+      <c r="J193" s="64"/>
+      <c r="K193" s="64"/>
+      <c r="L193" s="67"/>
       <c r="M193" s="12">
         <v>5</v>
       </c>
@@ -11112,17 +11285,17 @@
       <c r="T193" s="1"/>
     </row>
     <row r="194" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B194" s="59"/>
-      <c r="C194" s="59"/>
-      <c r="D194" s="62"/>
-      <c r="E194" s="62"/>
-      <c r="F194" s="65"/>
-      <c r="G194" s="62"/>
-      <c r="H194" s="62"/>
-      <c r="I194" s="62"/>
-      <c r="J194" s="62"/>
-      <c r="K194" s="62"/>
-      <c r="L194" s="55" t="s">
+      <c r="B194" s="72"/>
+      <c r="C194" s="72"/>
+      <c r="D194" s="64"/>
+      <c r="E194" s="64"/>
+      <c r="F194" s="78"/>
+      <c r="G194" s="64"/>
+      <c r="H194" s="64"/>
+      <c r="I194" s="64"/>
+      <c r="J194" s="64"/>
+      <c r="K194" s="64"/>
+      <c r="L194" s="66" t="s">
         <v>66</v>
       </c>
       <c r="M194" s="5">
@@ -11143,17 +11316,17 @@
       <c r="T194" s="1"/>
     </row>
     <row r="195" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B195" s="59"/>
-      <c r="C195" s="59"/>
-      <c r="D195" s="62"/>
-      <c r="E195" s="62"/>
-      <c r="F195" s="65"/>
-      <c r="G195" s="62"/>
-      <c r="H195" s="62"/>
-      <c r="I195" s="62"/>
-      <c r="J195" s="62"/>
-      <c r="K195" s="62"/>
-      <c r="L195" s="56"/>
+      <c r="B195" s="72"/>
+      <c r="C195" s="72"/>
+      <c r="D195" s="64"/>
+      <c r="E195" s="64"/>
+      <c r="F195" s="78"/>
+      <c r="G195" s="64"/>
+      <c r="H195" s="64"/>
+      <c r="I195" s="64"/>
+      <c r="J195" s="64"/>
+      <c r="K195" s="64"/>
+      <c r="L195" s="67"/>
       <c r="M195" s="12">
         <v>2</v>
       </c>
@@ -11172,17 +11345,17 @@
       <c r="T195" s="1"/>
     </row>
     <row r="196" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B196" s="59"/>
-      <c r="C196" s="59"/>
-      <c r="D196" s="62"/>
-      <c r="E196" s="62"/>
-      <c r="F196" s="65"/>
-      <c r="G196" s="62"/>
-      <c r="H196" s="62"/>
-      <c r="I196" s="62"/>
-      <c r="J196" s="62"/>
-      <c r="K196" s="62"/>
-      <c r="L196" s="56"/>
+      <c r="B196" s="72"/>
+      <c r="C196" s="72"/>
+      <c r="D196" s="64"/>
+      <c r="E196" s="64"/>
+      <c r="F196" s="78"/>
+      <c r="G196" s="64"/>
+      <c r="H196" s="64"/>
+      <c r="I196" s="64"/>
+      <c r="J196" s="64"/>
+      <c r="K196" s="64"/>
+      <c r="L196" s="67"/>
       <c r="M196" s="12">
         <v>3</v>
       </c>
@@ -11201,17 +11374,17 @@
       <c r="T196" s="1"/>
     </row>
     <row r="197" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B197" s="59"/>
-      <c r="C197" s="59"/>
-      <c r="D197" s="62"/>
-      <c r="E197" s="62"/>
-      <c r="F197" s="65"/>
-      <c r="G197" s="62"/>
-      <c r="H197" s="62"/>
-      <c r="I197" s="62"/>
-      <c r="J197" s="62"/>
-      <c r="K197" s="62"/>
-      <c r="L197" s="56"/>
+      <c r="B197" s="72"/>
+      <c r="C197" s="72"/>
+      <c r="D197" s="64"/>
+      <c r="E197" s="64"/>
+      <c r="F197" s="78"/>
+      <c r="G197" s="64"/>
+      <c r="H197" s="64"/>
+      <c r="I197" s="64"/>
+      <c r="J197" s="64"/>
+      <c r="K197" s="64"/>
+      <c r="L197" s="67"/>
       <c r="M197" s="12">
         <v>4</v>
       </c>
@@ -11230,17 +11403,17 @@
       <c r="T197" s="1"/>
     </row>
     <row r="198" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B198" s="60"/>
-      <c r="C198" s="60"/>
-      <c r="D198" s="63"/>
-      <c r="E198" s="63"/>
-      <c r="F198" s="66"/>
-      <c r="G198" s="63"/>
-      <c r="H198" s="63"/>
-      <c r="I198" s="63"/>
-      <c r="J198" s="63"/>
-      <c r="K198" s="63"/>
-      <c r="L198" s="56"/>
+      <c r="B198" s="73"/>
+      <c r="C198" s="73"/>
+      <c r="D198" s="65"/>
+      <c r="E198" s="65"/>
+      <c r="F198" s="79"/>
+      <c r="G198" s="65"/>
+      <c r="H198" s="65"/>
+      <c r="I198" s="65"/>
+      <c r="J198" s="65"/>
+      <c r="K198" s="65"/>
+      <c r="L198" s="67"/>
       <c r="M198" s="12">
         <v>5</v>
       </c>
@@ -11260,6 +11433,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="L179:L183"/>
+    <mergeCell ref="L184:L188"/>
+    <mergeCell ref="L189:L193"/>
+    <mergeCell ref="L194:L198"/>
+    <mergeCell ref="B149:B198"/>
+    <mergeCell ref="C149:C198"/>
+    <mergeCell ref="D149:D198"/>
+    <mergeCell ref="E149:E198"/>
+    <mergeCell ref="F149:F198"/>
+    <mergeCell ref="G149:G198"/>
+    <mergeCell ref="L164:L168"/>
+    <mergeCell ref="L149:L153"/>
+    <mergeCell ref="L154:L158"/>
+    <mergeCell ref="L159:L163"/>
+    <mergeCell ref="L174:L178"/>
+    <mergeCell ref="L124:L128"/>
+    <mergeCell ref="L99:L103"/>
+    <mergeCell ref="L104:L108"/>
+    <mergeCell ref="L109:L113"/>
+    <mergeCell ref="L114:L118"/>
+    <mergeCell ref="L129:L133"/>
+    <mergeCell ref="L134:L138"/>
+    <mergeCell ref="L139:L143"/>
+    <mergeCell ref="L144:L148"/>
+    <mergeCell ref="L169:L173"/>
+    <mergeCell ref="F79:F148"/>
+    <mergeCell ref="G79:G148"/>
+    <mergeCell ref="H79:H148"/>
+    <mergeCell ref="I79:I148"/>
+    <mergeCell ref="J79:J148"/>
+    <mergeCell ref="H9:H78"/>
+    <mergeCell ref="I9:I78"/>
+    <mergeCell ref="J9:J78"/>
+    <mergeCell ref="K9:K78"/>
+    <mergeCell ref="H149:H198"/>
+    <mergeCell ref="I149:I198"/>
+    <mergeCell ref="J149:J198"/>
+    <mergeCell ref="K149:K198"/>
+    <mergeCell ref="K79:K148"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L69:L73"/>
+    <mergeCell ref="L74:L78"/>
+    <mergeCell ref="L89:L93"/>
+    <mergeCell ref="L84:L88"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="L49:L53"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="L59:L63"/>
     <mergeCell ref="O14:O18"/>
     <mergeCell ref="G9:G78"/>
     <mergeCell ref="L34:L38"/>
@@ -11276,59 +11502,6 @@
     <mergeCell ref="L94:L98"/>
     <mergeCell ref="L79:L83"/>
     <mergeCell ref="L64:L68"/>
-    <mergeCell ref="L69:L73"/>
-    <mergeCell ref="L74:L78"/>
-    <mergeCell ref="L89:L93"/>
-    <mergeCell ref="L84:L88"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="L49:L53"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="H9:H78"/>
-    <mergeCell ref="I9:I78"/>
-    <mergeCell ref="J9:J78"/>
-    <mergeCell ref="K9:K78"/>
-    <mergeCell ref="H149:H198"/>
-    <mergeCell ref="I149:I198"/>
-    <mergeCell ref="J149:J198"/>
-    <mergeCell ref="K149:K198"/>
-    <mergeCell ref="K79:K148"/>
-    <mergeCell ref="F79:F148"/>
-    <mergeCell ref="G79:G148"/>
-    <mergeCell ref="H79:H148"/>
-    <mergeCell ref="I79:I148"/>
-    <mergeCell ref="J79:J148"/>
-    <mergeCell ref="L129:L133"/>
-    <mergeCell ref="L134:L138"/>
-    <mergeCell ref="L139:L143"/>
-    <mergeCell ref="L144:L148"/>
-    <mergeCell ref="L169:L173"/>
-    <mergeCell ref="L124:L128"/>
-    <mergeCell ref="L99:L103"/>
-    <mergeCell ref="L104:L108"/>
-    <mergeCell ref="L109:L113"/>
-    <mergeCell ref="L114:L118"/>
-    <mergeCell ref="L179:L183"/>
-    <mergeCell ref="L184:L188"/>
-    <mergeCell ref="L189:L193"/>
-    <mergeCell ref="L194:L198"/>
-    <mergeCell ref="B149:B198"/>
-    <mergeCell ref="C149:C198"/>
-    <mergeCell ref="D149:D198"/>
-    <mergeCell ref="E149:E198"/>
-    <mergeCell ref="F149:F198"/>
-    <mergeCell ref="G149:G198"/>
-    <mergeCell ref="L164:L168"/>
-    <mergeCell ref="L149:L153"/>
-    <mergeCell ref="L154:L158"/>
-    <mergeCell ref="L159:L163"/>
-    <mergeCell ref="L174:L178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
